--- a/raw_data/20200818_saline/20200818_Sensor3_Test_5.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_5.xlsx
@@ -1,885 +1,1301 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE379EB3-50DB-4E24-AA3E-952D6EFF3F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>4155.555652</v>
       </c>
       <c r="B2" s="1">
-        <v>1.154321</v>
+        <v>1.1543209999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1144.870000</v>
+        <v>1144.8699999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-256.601000</v>
+        <v>-256.601</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>4165.605062</v>
+        <v>4165.6050619999996</v>
       </c>
       <c r="G2" s="1">
-        <v>1.157113</v>
+        <v>1.1571130000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1165.510000</v>
+        <v>1165.51</v>
       </c>
       <c r="I2" s="1">
-        <v>-214.889000</v>
+        <v>-214.88900000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>4176.077598</v>
+        <v>4176.0775979999999</v>
       </c>
       <c r="L2" s="1">
-        <v>1.160022</v>
+        <v>1.1600220000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1192.730000</v>
+        <v>1192.73</v>
       </c>
       <c r="N2" s="1">
-        <v>-149.233000</v>
+        <v>-149.233</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>4186.924108</v>
+        <v>4186.9241080000002</v>
       </c>
       <c r="Q2" s="1">
-        <v>1.163034</v>
+        <v>1.1630339999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1200.160000</v>
+        <v>1200.1600000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-127.191000</v>
+        <v>-127.191</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>4197.447257</v>
+        <v>4197.4472569999998</v>
       </c>
       <c r="V2" s="1">
         <v>1.165958</v>
       </c>
       <c r="W2" s="1">
-        <v>1207.190000</v>
+        <v>1207.19</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.291000</v>
+        <v>-106.291</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>4207.861758</v>
       </c>
       <c r="AA2" s="1">
-        <v>1.168850</v>
+        <v>1.1688499999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1214.470000</v>
+        <v>1214.47</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.173700</v>
+        <v>-89.173699999999997</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>4218.773714</v>
+        <v>4218.7737139999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>1.171882</v>
+        <v>1.1718820000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1218.830000</v>
+        <v>1218.83</v>
       </c>
       <c r="AH2" s="1">
-        <v>-84.624100</v>
+        <v>-84.624099999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>4229.524003</v>
+        <v>4229.5240030000004</v>
       </c>
       <c r="AK2" s="1">
         <v>1.174868</v>
       </c>
       <c r="AL2" s="1">
-        <v>1225.710000</v>
+        <v>1225.71</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.730400</v>
+        <v>-87.730400000000003</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>4240.100197</v>
+        <v>4240.1001969999998</v>
       </c>
       <c r="AP2" s="1">
-        <v>1.177806</v>
+        <v>1.1778059999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1233.440000</v>
+        <v>1233.44</v>
       </c>
       <c r="AR2" s="1">
-        <v>-99.265200</v>
+        <v>-99.265199999999993</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>4250.815281</v>
+        <v>4250.8152810000001</v>
       </c>
       <c r="AU2" s="1">
         <v>1.180782</v>
       </c>
       <c r="AV2" s="1">
-        <v>1243.170000</v>
+        <v>1243.17</v>
       </c>
       <c r="AW2" s="1">
-        <v>-118.015000</v>
+        <v>-118.015</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>4261.574025</v>
+        <v>4261.5740249999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>1.183771</v>
+        <v>1.1837709999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1251.340000</v>
+        <v>1251.3399999999999</v>
       </c>
       <c r="BB2" s="1">
-        <v>-134.981000</v>
+        <v>-134.98099999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>4272.190889</v>
+        <v>4272.1908890000004</v>
       </c>
       <c r="BE2" s="1">
-        <v>1.186720</v>
+        <v>1.18672</v>
       </c>
       <c r="BF2" s="1">
-        <v>1289.990000</v>
+        <v>1289.99</v>
       </c>
       <c r="BG2" s="1">
-        <v>-214.740000</v>
+        <v>-214.74</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>4282.906950</v>
+        <v>4282.9069499999996</v>
       </c>
       <c r="BJ2" s="1">
-        <v>1.189696</v>
+        <v>1.1896960000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1356.520000</v>
+        <v>1356.52</v>
       </c>
       <c r="BL2" s="1">
-        <v>-348.561000</v>
+        <v>-348.56099999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>4293.881438</v>
+        <v>4293.8814380000003</v>
       </c>
       <c r="BO2" s="1">
-        <v>1.192745</v>
+        <v>1.1927449999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1465.690000</v>
+        <v>1465.69</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-568.633000</v>
+        <v>-568.63300000000004</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>4304.220022</v>
+        <v>4304.2200220000004</v>
       </c>
       <c r="BT2" s="1">
-        <v>1.195617</v>
+        <v>1.1956169999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1592.590000</v>
+        <v>1592.59</v>
       </c>
       <c r="BV2" s="1">
-        <v>-818.690000</v>
+        <v>-818.69</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>4315.048675</v>
       </c>
       <c r="BY2" s="1">
-        <v>1.198625</v>
+        <v>1.1986250000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1739.890000</v>
+        <v>1739.89</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1093.110000</v>
+        <v>-1093.1099999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>4325.931395</v>
+        <v>4325.9313949999996</v>
       </c>
       <c r="CD2" s="1">
         <v>1.201648</v>
       </c>
       <c r="CE2" s="1">
-        <v>2151.290000</v>
+        <v>2151.29</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1761.150000</v>
+        <v>-1761.15</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>4155.906801</v>
+        <v>4155.9068010000001</v>
       </c>
       <c r="B3" s="1">
-        <v>1.154419</v>
+        <v>1.1544190000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1144.490000</v>
+        <v>1144.49</v>
       </c>
       <c r="D3" s="1">
-        <v>-257.039000</v>
+        <v>-257.03899999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>4166.334182</v>
+        <v>4166.3341819999996</v>
       </c>
       <c r="G3" s="1">
-        <v>1.157315</v>
+        <v>1.1573150000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1166.060000</v>
+        <v>1166.06</v>
       </c>
       <c r="I3" s="1">
-        <v>-215.316000</v>
+        <v>-215.316</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>4176.799769</v>
+        <v>4176.7997690000002</v>
       </c>
       <c r="L3" s="1">
-        <v>1.160222</v>
+        <v>1.1602220000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1192.860000</v>
+        <v>1192.8599999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-149.483000</v>
+        <v>-149.483</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>4187.267834</v>
+        <v>4187.2678340000002</v>
       </c>
       <c r="Q3" s="1">
-        <v>1.163130</v>
+        <v>1.16313</v>
       </c>
       <c r="R3" s="1">
-        <v>1200.160000</v>
+        <v>1200.1600000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-127.149000</v>
+        <v>-127.149</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>4197.802365</v>
+        <v>4197.8023649999996</v>
       </c>
       <c r="V3" s="1">
         <v>1.166056</v>
       </c>
       <c r="W3" s="1">
-        <v>1207.240000</v>
+        <v>1207.24</v>
       </c>
       <c r="X3" s="1">
-        <v>-106.263000</v>
+        <v>-106.26300000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>4208.234720</v>
+        <v>4208.2347200000004</v>
       </c>
       <c r="AA3" s="1">
         <v>1.168954</v>
       </c>
       <c r="AB3" s="1">
-        <v>1214.390000</v>
+        <v>1214.3900000000001</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.289300</v>
+        <v>-89.289299999999997</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>4219.438848</v>
+        <v>4219.4388479999998</v>
       </c>
       <c r="AF3" s="1">
-        <v>1.172066</v>
+        <v>1.1720660000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1218.890000</v>
+        <v>1218.8900000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-84.653200</v>
+        <v>-84.653199999999998</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>4229.950066</v>
+        <v>4229.9500660000003</v>
       </c>
       <c r="AK3" s="1">
-        <v>1.174986</v>
+        <v>1.1749860000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1225.700000</v>
+        <v>1225.7</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.745600</v>
+        <v>-87.745599999999996</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>4240.545141</v>
+        <v>4240.5451409999996</v>
       </c>
       <c r="AP3" s="1">
         <v>1.177929</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1233.430000</v>
+        <v>1233.43</v>
       </c>
       <c r="AR3" s="1">
-        <v>-99.279000</v>
+        <v>-99.278999999999996</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>4251.181318</v>
+        <v>4251.1813179999999</v>
       </c>
       <c r="AU3" s="1">
         <v>1.180884</v>
       </c>
       <c r="AV3" s="1">
-        <v>1243.150000</v>
+        <v>1243.1500000000001</v>
       </c>
       <c r="AW3" s="1">
-        <v>-118.024000</v>
+        <v>-118.024</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>4261.948472</v>
@@ -888,13 +1304,13 @@
         <v>1.183875</v>
       </c>
       <c r="BA3" s="1">
-        <v>1251.310000</v>
+        <v>1251.31</v>
       </c>
       <c r="BB3" s="1">
-        <v>-134.984000</v>
+        <v>-134.98400000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>4272.591625</v>
@@ -903,587 +1319,587 @@
         <v>1.186831</v>
       </c>
       <c r="BF3" s="1">
-        <v>1289.960000</v>
+        <v>1289.96</v>
       </c>
       <c r="BG3" s="1">
-        <v>-214.765000</v>
+        <v>-214.76499999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>4283.324059</v>
+        <v>4283.3240589999996</v>
       </c>
       <c r="BJ3" s="1">
-        <v>1.189812</v>
+        <v>1.1898120000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1356.500000</v>
+        <v>1356.5</v>
       </c>
       <c r="BL3" s="1">
-        <v>-348.566000</v>
+        <v>-348.56599999999997</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>4293.996974</v>
+        <v>4293.9969739999997</v>
       </c>
       <c r="BO3" s="1">
         <v>1.192777</v>
       </c>
       <c r="BP3" s="1">
-        <v>1465.680000</v>
+        <v>1465.68</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-568.663000</v>
+        <v>-568.66300000000001</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>4304.387699</v>
+        <v>4304.3876989999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>1.195663</v>
+        <v>1.1956629999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1592.840000</v>
+        <v>1592.84</v>
       </c>
       <c r="BV3" s="1">
-        <v>-818.801000</v>
+        <v>-818.80100000000004</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>4315.513922</v>
+        <v>4315.5139220000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>1.198754</v>
+        <v>1.1987540000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1739.940000</v>
+        <v>1739.94</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1093.160000</v>
+        <v>-1093.1600000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>4326.555363</v>
+        <v>4326.5553630000004</v>
       </c>
       <c r="CD3" s="1">
         <v>1.201821</v>
       </c>
       <c r="CE3" s="1">
-        <v>2149.700000</v>
+        <v>2149.6999999999998</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1763.430000</v>
+        <v>-1763.43</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>4156.589779</v>
+        <v>4156.5897789999999</v>
       </c>
       <c r="B4" s="1">
-        <v>1.154608</v>
+        <v>1.1546080000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1144.330000</v>
+        <v>1144.33</v>
       </c>
       <c r="D4" s="1">
-        <v>-256.766000</v>
+        <v>-256.76600000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>4166.676422</v>
+        <v>4166.6764219999995</v>
       </c>
       <c r="G4" s="1">
-        <v>1.157410</v>
+        <v>1.15741</v>
       </c>
       <c r="H4" s="1">
-        <v>1165.620000</v>
+        <v>1165.6199999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-215.197000</v>
+        <v>-215.197</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>4177.159895</v>
+        <v>4177.1598949999998</v>
       </c>
       <c r="L4" s="1">
-        <v>1.160322</v>
+        <v>1.1603220000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1192.780000</v>
+        <v>1192.78</v>
       </c>
       <c r="N4" s="1">
-        <v>-149.186000</v>
+        <v>-149.18600000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>4187.616522</v>
+        <v>4187.6165220000003</v>
       </c>
       <c r="Q4" s="1">
         <v>1.163227</v>
       </c>
       <c r="R4" s="1">
-        <v>1200.100000</v>
+        <v>1200.0999999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-127.076000</v>
+        <v>-127.07599999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>4198.445708</v>
+        <v>4198.4457080000002</v>
       </c>
       <c r="V4" s="1">
-        <v>1.166235</v>
+        <v>1.1662349999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1207.210000</v>
+        <v>1207.21</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.304000</v>
+        <v>-106.304</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>4208.899890</v>
+        <v>4208.8998899999997</v>
       </c>
       <c r="AA4" s="1">
-        <v>1.169139</v>
+        <v>1.1691389999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1214.260000</v>
+        <v>1214.26</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.291600</v>
+        <v>-89.291600000000003</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>4219.805919</v>
+        <v>4219.8059190000004</v>
       </c>
       <c r="AF4" s="1">
-        <v>1.172168</v>
+        <v>1.1721680000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1218.850000</v>
+        <v>1218.8499999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-84.658400</v>
+        <v>-84.6584</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>4230.302225</v>
+        <v>4230.3022250000004</v>
       </c>
       <c r="AK4" s="1">
         <v>1.175084</v>
       </c>
       <c r="AL4" s="1">
-        <v>1225.680000</v>
+        <v>1225.68</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.752200</v>
+        <v>-87.752200000000002</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>4240.905236</v>
+        <v>4240.9052359999996</v>
       </c>
       <c r="AP4" s="1">
         <v>1.178029</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1233.430000</v>
+        <v>1233.43</v>
       </c>
       <c r="AR4" s="1">
-        <v>-99.266200</v>
+        <v>-99.266199999999998</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>4251.547365</v>
+        <v>4251.5473650000004</v>
       </c>
       <c r="AU4" s="1">
         <v>1.180985</v>
       </c>
       <c r="AV4" s="1">
-        <v>1243.150000</v>
+        <v>1243.1500000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-118.013000</v>
+        <v>-118.01300000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>4262.362666</v>
       </c>
       <c r="AZ4" s="1">
-        <v>1.183990</v>
+        <v>1.1839900000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1251.350000</v>
+        <v>1251.3499999999999</v>
       </c>
       <c r="BB4" s="1">
-        <v>-135.004000</v>
+        <v>-135.00399999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>4273.020941</v>
+        <v>4273.0209409999998</v>
       </c>
       <c r="BE4" s="1">
-        <v>1.186950</v>
+        <v>1.1869499999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1290.010000</v>
+        <v>1290.01</v>
       </c>
       <c r="BG4" s="1">
-        <v>-214.764000</v>
+        <v>-214.76400000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>4283.670051</v>
+        <v>4283.6700510000001</v>
       </c>
       <c r="BJ4" s="1">
         <v>1.189908</v>
       </c>
       <c r="BK4" s="1">
-        <v>1356.520000</v>
+        <v>1356.52</v>
       </c>
       <c r="BL4" s="1">
-        <v>-348.601000</v>
+        <v>-348.601</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>4294.422076</v>
+        <v>4294.4220759999998</v>
       </c>
       <c r="BO4" s="1">
         <v>1.192895</v>
       </c>
       <c r="BP4" s="1">
-        <v>1465.700000</v>
+        <v>1465.7</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-568.659000</v>
+        <v>-568.65899999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>4304.798880</v>
+        <v>4304.7988800000003</v>
       </c>
       <c r="BT4" s="1">
-        <v>1.195777</v>
+        <v>1.1957770000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1592.860000</v>
+        <v>1592.86</v>
       </c>
       <c r="BV4" s="1">
-        <v>-818.888000</v>
+        <v>-818.88800000000003</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>4315.960351</v>
+        <v>4315.9603509999997</v>
       </c>
       <c r="BY4" s="1">
-        <v>1.198878</v>
+        <v>1.1988780000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1739.970000</v>
+        <v>1739.97</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1093.230000</v>
+        <v>-1093.23</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>4327.134690</v>
+        <v>4327.1346899999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>1.201982</v>
+        <v>1.2019820000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>2150.240000</v>
+        <v>2150.2399999999998</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1762.920000</v>
+        <v>-1762.92</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>4156.929042</v>
+        <v>4156.9290419999998</v>
       </c>
       <c r="B5" s="1">
         <v>1.154703</v>
       </c>
       <c r="C5" s="1">
-        <v>1144.740000</v>
+        <v>1144.74</v>
       </c>
       <c r="D5" s="1">
-        <v>-256.993000</v>
+        <v>-256.99299999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>4167.007749</v>
+        <v>4167.0077490000003</v>
       </c>
       <c r="G5" s="1">
         <v>1.157502</v>
       </c>
       <c r="H5" s="1">
-        <v>1165.880000</v>
+        <v>1165.8800000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-215.280000</v>
+        <v>-215.28</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>4177.804167</v>
+        <v>4177.8041670000002</v>
       </c>
       <c r="L5" s="1">
         <v>1.160501</v>
       </c>
       <c r="M5" s="1">
-        <v>1192.680000</v>
+        <v>1192.68</v>
       </c>
       <c r="N5" s="1">
-        <v>-149.263000</v>
+        <v>-149.26300000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>4188.269786</v>
+        <v>4188.2697859999998</v>
       </c>
       <c r="Q5" s="1">
         <v>1.163408</v>
       </c>
       <c r="R5" s="1">
-        <v>1200.200000</v>
+        <v>1200.2</v>
       </c>
       <c r="S5" s="1">
-        <v>-127.126000</v>
+        <v>-127.126</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>4198.830107</v>
+        <v>4198.8301069999998</v>
       </c>
       <c r="V5" s="1">
         <v>1.166342</v>
       </c>
       <c r="W5" s="1">
-        <v>1207.200000</v>
+        <v>1207.2</v>
       </c>
       <c r="X5" s="1">
-        <v>-106.295000</v>
+        <v>-106.295</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>4209.279294</v>
+        <v>4209.2792939999999</v>
       </c>
       <c r="AA5" s="1">
         <v>1.169244</v>
       </c>
       <c r="AB5" s="1">
-        <v>1214.360000</v>
+        <v>1214.3599999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.191400</v>
+        <v>-89.191400000000002</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>4220.149648</v>
+        <v>4220.1496479999996</v>
       </c>
       <c r="AF5" s="1">
         <v>1.172264</v>
       </c>
       <c r="AG5" s="1">
-        <v>1218.840000</v>
+        <v>1218.8399999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-84.643900</v>
+        <v>-84.643900000000002</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>4230.649425</v>
+        <v>4230.6494249999996</v>
       </c>
       <c r="AK5" s="1">
-        <v>1.175180</v>
+        <v>1.1751799999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1225.680000</v>
+        <v>1225.68</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.759900</v>
+        <v>-87.759900000000002</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>4241.266819</v>
+        <v>4241.2668190000004</v>
       </c>
       <c r="AP5" s="1">
-        <v>1.178130</v>
+        <v>1.1781299999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1233.460000</v>
+        <v>1233.46</v>
       </c>
       <c r="AR5" s="1">
-        <v>-99.255700</v>
+        <v>-99.255700000000004</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>4251.960038</v>
+        <v>4251.9600380000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>1.181100</v>
+        <v>1.1811</v>
       </c>
       <c r="AV5" s="1">
-        <v>1243.170000</v>
+        <v>1243.17</v>
       </c>
       <c r="AW5" s="1">
-        <v>-117.987000</v>
+        <v>-117.98699999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>4262.665190</v>
+        <v>4262.6651899999997</v>
       </c>
       <c r="AZ5" s="1">
-        <v>1.184074</v>
+        <v>1.1840740000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1251.330000</v>
+        <v>1251.33</v>
       </c>
       <c r="BB5" s="1">
-        <v>-134.984000</v>
+        <v>-134.98400000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>4273.312810</v>
+        <v>4273.3128100000004</v>
       </c>
       <c r="BE5" s="1">
-        <v>1.187031</v>
+        <v>1.1870309999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1289.970000</v>
+        <v>1289.97</v>
       </c>
       <c r="BG5" s="1">
-        <v>-214.764000</v>
+        <v>-214.76400000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>4284.045738</v>
+        <v>4284.0457379999998</v>
       </c>
       <c r="BJ5" s="1">
         <v>1.190013</v>
       </c>
       <c r="BK5" s="1">
-        <v>1356.500000</v>
+        <v>1356.5</v>
       </c>
       <c r="BL5" s="1">
-        <v>-348.584000</v>
+        <v>-348.584</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>4294.821820</v>
+        <v>4294.8218200000001</v>
       </c>
       <c r="BO5" s="1">
         <v>1.193006</v>
       </c>
       <c r="BP5" s="1">
-        <v>1465.670000</v>
+        <v>1465.67</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-568.625000</v>
+        <v>-568.625</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>4305.230398</v>
+        <v>4305.2303979999997</v>
       </c>
       <c r="BT5" s="1">
         <v>1.195897</v>
       </c>
       <c r="BU5" s="1">
-        <v>1592.880000</v>
+        <v>1592.88</v>
       </c>
       <c r="BV5" s="1">
-        <v>-818.978000</v>
+        <v>-818.97799999999995</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>4316.391841</v>
+        <v>4316.3918409999997</v>
       </c>
       <c r="BY5" s="1">
         <v>1.198998</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1739.910000</v>
+        <v>1739.91</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1093.150000</v>
+        <v>-1093.1500000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>4327.584562</v>
@@ -1492,120 +1908,120 @@
         <v>1.202107</v>
       </c>
       <c r="CE5" s="1">
-        <v>2151.020000</v>
+        <v>2151.02</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1761.340000</v>
+        <v>-1761.34</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>4157.272808</v>
+        <v>4157.2728079999997</v>
       </c>
       <c r="B6" s="1">
         <v>1.154798</v>
       </c>
       <c r="C6" s="1">
-        <v>1144.910000</v>
+        <v>1144.9100000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-257.054000</v>
+        <v>-257.05399999999997</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>4167.694708</v>
       </c>
       <c r="G6" s="1">
-        <v>1.157693</v>
+        <v>1.1576930000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1165.700000</v>
+        <v>1165.7</v>
       </c>
       <c r="I6" s="1">
-        <v>-214.873000</v>
+        <v>-214.87299999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>4178.187575</v>
+        <v>4178.1875749999999</v>
       </c>
       <c r="L6" s="1">
-        <v>1.160608</v>
+        <v>1.1606080000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1192.660000</v>
+        <v>1192.6600000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-149.214000</v>
+        <v>-149.214</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>4188.663576</v>
+        <v>4188.6635759999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>1.163518</v>
+        <v>1.1635180000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1200.150000</v>
+        <v>1200.1500000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-127.174000</v>
+        <v>-127.17400000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>4199.176778</v>
       </c>
       <c r="V6" s="1">
-        <v>1.166438</v>
+        <v>1.1664380000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1207.190000</v>
+        <v>1207.19</v>
       </c>
       <c r="X6" s="1">
-        <v>-106.399000</v>
+        <v>-106.399</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>4209.626657</v>
+        <v>4209.6266569999998</v>
       </c>
       <c r="AA6" s="1">
         <v>1.169341</v>
       </c>
       <c r="AB6" s="1">
-        <v>1214.230000</v>
+        <v>1214.23</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.314200</v>
+        <v>-89.3142</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>4220.492365</v>
+        <v>4220.4923650000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>1.172359</v>
+        <v>1.1723589999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1218.800000</v>
+        <v>1218.8</v>
       </c>
       <c r="AH6" s="1">
-        <v>-84.641600</v>
+        <v>-84.641599999999997</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>4231.062097</v>
@@ -1614,512 +2030,512 @@
         <v>1.175295</v>
       </c>
       <c r="AL6" s="1">
-        <v>1225.700000</v>
+        <v>1225.7</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.720100</v>
+        <v>-87.720100000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>4241.694339</v>
+        <v>4241.6943389999997</v>
       </c>
       <c r="AP6" s="1">
         <v>1.178248</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1233.440000</v>
+        <v>1233.44</v>
       </c>
       <c r="AR6" s="1">
-        <v>-99.248700</v>
+        <v>-99.248699999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>4252.277972</v>
+        <v>4252.2779719999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>1.181188</v>
+        <v>1.1811879999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1243.160000</v>
+        <v>1243.1600000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-118.015000</v>
+        <v>-118.015</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>4263.024295</v>
+        <v>4263.0242950000002</v>
       </c>
       <c r="AZ6" s="1">
-        <v>1.184173</v>
+        <v>1.1841729999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1251.310000</v>
+        <v>1251.31</v>
       </c>
       <c r="BB6" s="1">
-        <v>-134.976000</v>
+        <v>-134.976</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>4273.674888</v>
+        <v>4273.6748879999996</v>
       </c>
       <c r="BE6" s="1">
-        <v>1.187132</v>
+        <v>1.1871320000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1290.010000</v>
+        <v>1290.01</v>
       </c>
       <c r="BG6" s="1">
-        <v>-214.761000</v>
+        <v>-214.761</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>4284.420037</v>
+        <v>4284.4200369999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>1.190117</v>
+        <v>1.1901170000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1356.510000</v>
+        <v>1356.51</v>
       </c>
       <c r="BL6" s="1">
-        <v>-348.580000</v>
+        <v>-348.58</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>4295.245899</v>
+        <v>4295.2458989999996</v>
       </c>
       <c r="BO6" s="1">
-        <v>1.193124</v>
+        <v>1.1931240000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1465.660000</v>
+        <v>1465.66</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-568.673000</v>
+        <v>-568.673</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>4305.659407</v>
+        <v>4305.6594070000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>1.196017</v>
+        <v>1.1960170000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1592.950000</v>
+        <v>1592.95</v>
       </c>
       <c r="BV6" s="1">
-        <v>-819.056000</v>
+        <v>-819.05600000000004</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>4316.818931</v>
+        <v>4316.8189309999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>1.199116</v>
+        <v>1.1991160000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1739.850000</v>
+        <v>1739.85</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1093.260000</v>
+        <v>-1093.26</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>4328.100433</v>
+        <v>4328.1004329999996</v>
       </c>
       <c r="CD6" s="1">
-        <v>1.202250</v>
+        <v>1.20225</v>
       </c>
       <c r="CE6" s="1">
-        <v>2149.470000</v>
+        <v>2149.4699999999998</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1760.680000</v>
+        <v>-1760.68</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>4157.931298</v>
+        <v>4157.9312980000004</v>
       </c>
       <c r="B7" s="1">
         <v>1.154981</v>
       </c>
       <c r="C7" s="1">
-        <v>1144.530000</v>
+        <v>1144.53</v>
       </c>
       <c r="D7" s="1">
-        <v>-256.827000</v>
+        <v>-256.827</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>4168.053812</v>
+        <v>4168.0538120000001</v>
       </c>
       <c r="G7" s="1">
-        <v>1.157793</v>
+        <v>1.1577930000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1165.930000</v>
+        <v>1165.93</v>
       </c>
       <c r="I7" s="1">
-        <v>-215.246000</v>
+        <v>-215.24600000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>4178.533286</v>
+        <v>4178.5332859999999</v>
       </c>
       <c r="L7" s="1">
         <v>1.160704</v>
       </c>
       <c r="M7" s="1">
-        <v>1192.420000</v>
+        <v>1192.42</v>
       </c>
       <c r="N7" s="1">
-        <v>-149.130000</v>
+        <v>-149.13</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>4189.012761</v>
       </c>
       <c r="Q7" s="1">
-        <v>1.163615</v>
+        <v>1.1636150000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1200.200000</v>
+        <v>1200.2</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.185000</v>
+        <v>-127.185</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>4199.522501</v>
+        <v>4199.5225010000004</v>
       </c>
       <c r="V7" s="1">
         <v>1.166534</v>
       </c>
       <c r="W7" s="1">
-        <v>1207.140000</v>
+        <v>1207.1400000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.300000</v>
+        <v>-106.3</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>4209.981665</v>
+        <v>4209.9816650000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>1.169439</v>
+        <v>1.1694389999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1214.430000</v>
+        <v>1214.43</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.223200</v>
+        <v>-89.223200000000006</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>4220.914942</v>
+        <v>4220.9149420000003</v>
       </c>
       <c r="AF7" s="1">
-        <v>1.172476</v>
+        <v>1.1724760000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1218.840000</v>
+        <v>1218.8399999999999</v>
       </c>
       <c r="AH7" s="1">
-        <v>-84.630800</v>
+        <v>-84.630799999999994</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>4231.350305</v>
+        <v>4231.3503049999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>1.175375</v>
+        <v>1.1753750000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1225.680000</v>
+        <v>1225.68</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.741000</v>
+        <v>-87.741</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>4241.986978</v>
+        <v>4241.9869779999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>1.178330</v>
+        <v>1.1783300000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1233.440000</v>
+        <v>1233.44</v>
       </c>
       <c r="AR7" s="1">
-        <v>-99.259800</v>
+        <v>-99.259799999999998</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>4252.642564</v>
+        <v>4252.6425639999998</v>
       </c>
       <c r="AU7" s="1">
-        <v>1.181290</v>
+        <v>1.18129</v>
       </c>
       <c r="AV7" s="1">
-        <v>1243.160000</v>
+        <v>1243.1600000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-117.996000</v>
+        <v>-117.996</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>4263.382407</v>
+        <v>4263.3824070000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>1.184273</v>
+        <v>1.1842729999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1251.320000</v>
+        <v>1251.32</v>
       </c>
       <c r="BB7" s="1">
-        <v>-134.987000</v>
+        <v>-134.98699999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>4274.035017</v>
+        <v>4274.0350170000002</v>
       </c>
       <c r="BE7" s="1">
-        <v>1.187232</v>
+        <v>1.1872320000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1290.000000</v>
+        <v>1290</v>
       </c>
       <c r="BG7" s="1">
-        <v>-214.770000</v>
+        <v>-214.77</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>4284.833385</v>
+        <v>4284.8333849999999</v>
       </c>
       <c r="BJ7" s="1">
         <v>1.190231</v>
       </c>
       <c r="BK7" s="1">
-        <v>1356.540000</v>
+        <v>1356.54</v>
       </c>
       <c r="BL7" s="1">
-        <v>-348.608000</v>
+        <v>-348.608</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>4295.652620</v>
+        <v>4295.6526199999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>1.193237</v>
+        <v>1.1932370000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1465.720000</v>
+        <v>1465.72</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-568.639000</v>
+        <v>-568.63900000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>4306.070589</v>
+        <v>4306.0705889999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>1.196131</v>
+        <v>1.1961310000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1592.980000</v>
+        <v>1592.98</v>
       </c>
       <c r="BV7" s="1">
-        <v>-819.201000</v>
+        <v>-819.20100000000002</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>4317.237518</v>
+        <v>4317.2375179999999</v>
       </c>
       <c r="BY7" s="1">
         <v>1.199233</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1739.960000</v>
+        <v>1739.96</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1093.240000</v>
+        <v>-1093.24</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>4328.929215</v>
+        <v>4328.9292150000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>1.202480</v>
+        <v>1.20248</v>
       </c>
       <c r="CE7" s="1">
-        <v>2148.490000</v>
+        <v>2148.4899999999998</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1762.650000</v>
+        <v>-1762.65</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>4158.302465</v>
+        <v>4158.3024649999998</v>
       </c>
       <c r="B8" s="1">
         <v>1.155084</v>
       </c>
       <c r="C8" s="1">
-        <v>1144.720000</v>
+        <v>1144.72</v>
       </c>
       <c r="D8" s="1">
-        <v>-256.768000</v>
+        <v>-256.76799999999997</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>4168.397045</v>
+        <v>4168.3970449999997</v>
       </c>
       <c r="G8" s="1">
         <v>1.157888</v>
       </c>
       <c r="H8" s="1">
-        <v>1165.760000</v>
+        <v>1165.76</v>
       </c>
       <c r="I8" s="1">
-        <v>-215.109000</v>
+        <v>-215.10900000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>4178.880517</v>
+        <v>4178.8805169999996</v>
       </c>
       <c r="L8" s="1">
-        <v>1.160800</v>
+        <v>1.1608000000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1192.630000</v>
+        <v>1192.6300000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-149.207000</v>
+        <v>-149.20699999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>4189.361447</v>
+        <v>4189.3614470000002</v>
       </c>
       <c r="Q8" s="1">
-        <v>1.163712</v>
+        <v>1.1637120000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1200.140000</v>
+        <v>1200.1400000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-127.168000</v>
+        <v>-127.16800000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>4199.944384</v>
+        <v>4199.9443840000004</v>
       </c>
       <c r="V8" s="1">
-        <v>1.166651</v>
+        <v>1.1666510000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1207.190000</v>
+        <v>1207.19</v>
       </c>
       <c r="X8" s="1">
-        <v>-106.322000</v>
+        <v>-106.322</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>4210.672588</v>
+        <v>4210.6725880000004</v>
       </c>
       <c r="AA8" s="1">
-        <v>1.169631</v>
+        <v>1.1696310000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1214.350000</v>
+        <v>1214.3499999999999</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.205700</v>
+        <v>-89.205699999999993</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>4221.206589</v>
+        <v>4221.2065890000003</v>
       </c>
       <c r="AF8" s="1">
-        <v>1.172557</v>
+        <v>1.1725570000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1218.800000</v>
+        <v>1218.8</v>
       </c>
       <c r="AH8" s="1">
-        <v>-84.644100</v>
+        <v>-84.644099999999995</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>4231.701935</v>
@@ -2128,133 +2544,133 @@
         <v>1.175473</v>
       </c>
       <c r="AL8" s="1">
-        <v>1225.700000</v>
+        <v>1225.7</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.743400</v>
+        <v>-87.743399999999994</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>4242.346579</v>
       </c>
       <c r="AP8" s="1">
-        <v>1.178430</v>
+        <v>1.1784300000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1233.430000</v>
+        <v>1233.43</v>
       </c>
       <c r="AR8" s="1">
-        <v>-99.260000</v>
+        <v>-99.26</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>4253.005108</v>
+        <v>4253.0051080000003</v>
       </c>
       <c r="AU8" s="1">
-        <v>1.181390</v>
+        <v>1.1813899999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1243.140000</v>
+        <v>1243.1400000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-118.016000</v>
+        <v>-118.01600000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>4264.107060</v>
+        <v>4264.1070600000003</v>
       </c>
       <c r="AZ8" s="1">
         <v>1.184474</v>
       </c>
       <c r="BA8" s="1">
-        <v>1251.320000</v>
+        <v>1251.32</v>
       </c>
       <c r="BB8" s="1">
-        <v>-135.001000</v>
+        <v>-135.001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>4274.756662</v>
+        <v>4274.7566619999998</v>
       </c>
       <c r="BE8" s="1">
         <v>1.187432</v>
       </c>
       <c r="BF8" s="1">
-        <v>1289.990000</v>
+        <v>1289.99</v>
       </c>
       <c r="BG8" s="1">
-        <v>-214.756000</v>
+        <v>-214.756</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>4285.195466</v>
+        <v>4285.1954660000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>1.190332</v>
+        <v>1.1903319999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1356.510000</v>
+        <v>1356.51</v>
       </c>
       <c r="BL8" s="1">
-        <v>-348.566000</v>
+        <v>-348.56599999999997</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>4296.059835</v>
       </c>
       <c r="BO8" s="1">
-        <v>1.193350</v>
+        <v>1.1933499999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1465.670000</v>
+        <v>1465.67</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-568.657000</v>
+        <v>-568.65700000000004</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>4306.503133</v>
+        <v>4306.5031330000002</v>
       </c>
       <c r="BT8" s="1">
         <v>1.196251</v>
       </c>
       <c r="BU8" s="1">
-        <v>1592.840000</v>
+        <v>1592.84</v>
       </c>
       <c r="BV8" s="1">
-        <v>-819.353000</v>
+        <v>-819.35299999999995</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>4317.967133</v>
+        <v>4317.9671330000001</v>
       </c>
       <c r="BY8" s="1">
         <v>1.199435</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1739.910000</v>
+        <v>1739.91</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1093.150000</v>
+        <v>-1093.1500000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>4329.170768</v>
@@ -2263,195 +2679,195 @@
         <v>1.202547</v>
       </c>
       <c r="CE8" s="1">
-        <v>2151.200000</v>
+        <v>2151.1999999999998</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1762.630000</v>
+        <v>-1762.63</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>4158.653632</v>
+        <v>4158.6536319999996</v>
       </c>
       <c r="B9" s="1">
-        <v>1.155182</v>
+        <v>1.1551819999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1144.720000</v>
+        <v>1144.72</v>
       </c>
       <c r="D9" s="1">
-        <v>-257.080000</v>
+        <v>-257.08</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>4168.741763</v>
       </c>
       <c r="G9" s="1">
-        <v>1.157984</v>
+        <v>1.1579839999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1165.870000</v>
+        <v>1165.8699999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-215.202000</v>
+        <v>-215.202</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>4179.297162</v>
+        <v>4179.2971619999998</v>
       </c>
       <c r="L9" s="1">
-        <v>1.160916</v>
+        <v>1.1609160000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1192.560000</v>
+        <v>1192.56</v>
       </c>
       <c r="N9" s="1">
-        <v>-149.214000</v>
+        <v>-149.214</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>4189.781063</v>
+        <v>4189.7810630000004</v>
       </c>
       <c r="Q9" s="1">
-        <v>1.163828</v>
+        <v>1.1638280000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1200.120000</v>
+        <v>1200.1199999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-127.130000</v>
+        <v>-127.13</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>4200.224858</v>
+        <v>4200.2248579999996</v>
       </c>
       <c r="V9" s="1">
-        <v>1.166729</v>
+        <v>1.1667289999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1207.110000</v>
+        <v>1207.1099999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-106.258000</v>
+        <v>-106.258</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>4211.024219</v>
+        <v>4211.0242189999999</v>
       </c>
       <c r="AA9" s="1">
         <v>1.169729</v>
       </c>
       <c r="AB9" s="1">
-        <v>1214.370000</v>
+        <v>1214.3699999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.297600</v>
+        <v>-89.297600000000003</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>4221.550813</v>
+        <v>4221.5508129999998</v>
       </c>
       <c r="AF9" s="1">
-        <v>1.172653</v>
+        <v>1.1726529999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1218.810000</v>
+        <v>1218.81</v>
       </c>
       <c r="AH9" s="1">
-        <v>-84.625600</v>
+        <v>-84.625600000000006</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>4232.049664</v>
+        <v>4232.0496640000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>1.175569</v>
+        <v>1.1755690000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1225.710000</v>
+        <v>1225.71</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.758900</v>
+        <v>-87.758899999999997</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>4242.706673</v>
+        <v>4242.7066729999997</v>
       </c>
       <c r="AP9" s="1">
-        <v>1.178530</v>
+        <v>1.1785300000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1233.430000</v>
+        <v>1233.43</v>
       </c>
       <c r="AR9" s="1">
-        <v>-99.253300</v>
+        <v>-99.253299999999996</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>4253.734760</v>
+        <v>4253.7347600000003</v>
       </c>
       <c r="AU9" s="1">
-        <v>1.181593</v>
+        <v>1.1815929999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1243.150000</v>
+        <v>1243.1500000000001</v>
       </c>
       <c r="AW9" s="1">
-        <v>-118.021000</v>
+        <v>-118.021</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>4264.482053</v>
+        <v>4264.4820529999997</v>
       </c>
       <c r="AZ9" s="1">
-        <v>1.184578</v>
+        <v>1.1845779999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1251.320000</v>
+        <v>1251.32</v>
       </c>
       <c r="BB9" s="1">
-        <v>-134.963000</v>
+        <v>-134.96299999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>4275.147510</v>
+        <v>4275.1475099999998</v>
       </c>
       <c r="BE9" s="1">
         <v>1.187541</v>
       </c>
       <c r="BF9" s="1">
-        <v>1289.970000</v>
+        <v>1289.97</v>
       </c>
       <c r="BG9" s="1">
-        <v>-214.815000</v>
+        <v>-214.815</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>4285.569947</v>
@@ -2460,1298 +2876,1298 @@
         <v>1.190436</v>
       </c>
       <c r="BK9" s="1">
-        <v>1356.580000</v>
+        <v>1356.58</v>
       </c>
       <c r="BL9" s="1">
-        <v>-348.597000</v>
+        <v>-348.59699999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>4296.764649</v>
+        <v>4296.7646489999997</v>
       </c>
       <c r="BO9" s="1">
         <v>1.193546</v>
       </c>
       <c r="BP9" s="1">
-        <v>1465.700000</v>
+        <v>1465.7</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-568.674000</v>
+        <v>-568.67399999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>4307.235692</v>
+        <v>4307.2356920000002</v>
       </c>
       <c r="BT9" s="1">
-        <v>1.196454</v>
+        <v>1.1964539999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1592.920000</v>
+        <v>1592.92</v>
       </c>
       <c r="BV9" s="1">
-        <v>-819.381000</v>
+        <v>-819.38099999999997</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>4318.080253</v>
+        <v>4318.0802530000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>1.199467</v>
+        <v>1.1994670000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1739.940000</v>
+        <v>1739.94</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1093.170000</v>
+        <v>-1093.17</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>4329.703509</v>
+        <v>4329.7035089999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>1.202695</v>
+        <v>1.2026950000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>2149.310000</v>
+        <v>2149.31</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1760.510000</v>
+        <v>-1760.51</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>4158.996863</v>
+        <v>4158.9968630000003</v>
       </c>
       <c r="B10" s="1">
-        <v>1.155277</v>
+        <v>1.1552770000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1144.350000</v>
+        <v>1144.3499999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-256.954000</v>
+        <v>-256.95400000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>4169.161378</v>
+        <v>4169.1613779999998</v>
       </c>
       <c r="G10" s="1">
-        <v>1.158100</v>
+        <v>1.1580999999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1165.600000</v>
+        <v>1165.5999999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-215.518000</v>
+        <v>-215.518</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>4179.593764</v>
+        <v>4179.5937640000002</v>
       </c>
       <c r="L10" s="1">
         <v>1.160998</v>
       </c>
       <c r="M10" s="1">
-        <v>1192.840000</v>
+        <v>1192.8399999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-149.199000</v>
+        <v>-149.19900000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>4190.058359</v>
+        <v>4190.0583589999997</v>
       </c>
       <c r="Q10" s="1">
         <v>1.163905</v>
       </c>
       <c r="R10" s="1">
-        <v>1200.140000</v>
+        <v>1200.1400000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-127.075000</v>
+        <v>-127.075</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>4200.571059</v>
+        <v>4200.5710589999999</v>
       </c>
       <c r="V10" s="1">
         <v>1.166825</v>
       </c>
       <c r="W10" s="1">
-        <v>1207.080000</v>
+        <v>1207.08</v>
       </c>
       <c r="X10" s="1">
-        <v>-106.267000</v>
+        <v>-106.267</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>4211.371914</v>
+        <v>4211.3719140000003</v>
       </c>
       <c r="AA10" s="1">
         <v>1.169826</v>
       </c>
       <c r="AB10" s="1">
-        <v>1214.260000</v>
+        <v>1214.26</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.288400</v>
+        <v>-89.288399999999996</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>4221.892356</v>
+        <v>4221.8923560000003</v>
       </c>
       <c r="AF10" s="1">
-        <v>1.172748</v>
+        <v>1.1727479999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1218.860000</v>
+        <v>1218.8599999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-84.649900</v>
+        <v>-84.649900000000002</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>4232.750019</v>
+        <v>4232.7500190000001</v>
       </c>
       <c r="AK10" s="1">
         <v>1.175764</v>
       </c>
       <c r="AL10" s="1">
-        <v>1225.680000</v>
+        <v>1225.68</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.757700</v>
+        <v>-87.7577</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>4243.411488</v>
+        <v>4243.4114879999997</v>
       </c>
       <c r="AP10" s="1">
         <v>1.178725</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1233.440000</v>
+        <v>1233.44</v>
       </c>
       <c r="AR10" s="1">
-        <v>-99.238500</v>
+        <v>-99.238500000000002</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>4254.129073</v>
+        <v>4254.1290730000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>1.181703</v>
+        <v>1.1817029999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1243.130000</v>
+        <v>1243.1300000000001</v>
       </c>
       <c r="AW10" s="1">
-        <v>-117.999000</v>
+        <v>-117.999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>4264.860484</v>
+        <v>4264.8604839999998</v>
       </c>
       <c r="AZ10" s="1">
-        <v>1.184683</v>
+        <v>1.1846829999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1251.300000</v>
+        <v>1251.3</v>
       </c>
       <c r="BB10" s="1">
-        <v>-135.020000</v>
+        <v>-135.02000000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>4275.498181</v>
+        <v>4275.4981809999999</v>
       </c>
       <c r="BE10" s="1">
         <v>1.187638</v>
       </c>
       <c r="BF10" s="1">
-        <v>1290.000000</v>
+        <v>1290</v>
       </c>
       <c r="BG10" s="1">
-        <v>-214.793000</v>
+        <v>-214.79300000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>4286.250984</v>
+        <v>4286.2509840000002</v>
       </c>
       <c r="BJ10" s="1">
         <v>1.190625</v>
       </c>
       <c r="BK10" s="1">
-        <v>1356.520000</v>
+        <v>1356.52</v>
       </c>
       <c r="BL10" s="1">
-        <v>-348.623000</v>
+        <v>-348.62299999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>4296.880713</v>
+        <v>4296.8807129999996</v>
       </c>
       <c r="BO10" s="1">
         <v>1.193578</v>
       </c>
       <c r="BP10" s="1">
-        <v>1465.690000</v>
+        <v>1465.69</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-568.676000</v>
+        <v>-568.67600000000004</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>4307.376555</v>
+        <v>4307.3765549999998</v>
       </c>
       <c r="BT10" s="1">
         <v>1.196493</v>
       </c>
       <c r="BU10" s="1">
-        <v>1592.770000</v>
+        <v>1592.77</v>
       </c>
       <c r="BV10" s="1">
-        <v>-819.551000</v>
+        <v>-819.55100000000004</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>4318.517694</v>
+        <v>4318.5176940000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>1.199588</v>
+        <v>1.1995880000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1739.780000</v>
+        <v>1739.78</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1093.260000</v>
+        <v>-1093.26</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>4330.241133</v>
+        <v>4330.2411330000004</v>
       </c>
       <c r="CD10" s="1">
-        <v>1.202845</v>
+        <v>1.2028449999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>2149.600000</v>
+        <v>2149.6</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1762.930000</v>
+        <v>-1762.93</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>4159.411552</v>
+        <v>4159.4115519999996</v>
       </c>
       <c r="B11" s="1">
         <v>1.155392</v>
       </c>
       <c r="C11" s="1">
-        <v>1144.540000</v>
+        <v>1144.54</v>
       </c>
       <c r="D11" s="1">
-        <v>-256.762000</v>
+        <v>-256.762</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>4169.454018</v>
+        <v>4169.4540180000004</v>
       </c>
       <c r="G11" s="1">
         <v>1.158182</v>
       </c>
       <c r="H11" s="1">
-        <v>1165.890000</v>
+        <v>1165.8900000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-214.974000</v>
+        <v>-214.97399999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>4179.938981</v>
+        <v>4179.9389810000002</v>
       </c>
       <c r="L11" s="1">
-        <v>1.161094</v>
+        <v>1.1610940000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1192.600000</v>
+        <v>1192.5999999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-149.155000</v>
+        <v>-149.155</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>4190.409527</v>
+        <v>4190.4095269999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>1.164003</v>
+        <v>1.1640029999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1200.150000</v>
+        <v>1200.1500000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-127.085000</v>
+        <v>-127.08499999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>4200.912804</v>
+        <v>4200.9128039999996</v>
       </c>
       <c r="V11" s="1">
-        <v>1.166920</v>
+        <v>1.16692</v>
       </c>
       <c r="W11" s="1">
-        <v>1207.150000</v>
+        <v>1207.1500000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-106.305000</v>
+        <v>-106.30500000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>4212.067801</v>
+        <v>4212.0678010000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>1.170019</v>
+        <v>1.1700189999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1214.380000</v>
+        <v>1214.3800000000001</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.249300</v>
+        <v>-89.249300000000005</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>4222.578524</v>
+        <v>4222.5785239999996</v>
       </c>
       <c r="AF11" s="1">
         <v>1.172938</v>
       </c>
       <c r="AG11" s="1">
-        <v>1218.830000</v>
+        <v>1218.83</v>
       </c>
       <c r="AH11" s="1">
-        <v>-84.659300</v>
+        <v>-84.659300000000002</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>4233.097181</v>
+        <v>4233.0971810000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>1.175860</v>
+        <v>1.1758599999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1225.690000</v>
+        <v>1225.69</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.765100</v>
+        <v>-87.765100000000004</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>4243.788479</v>
+        <v>4243.7884789999998</v>
       </c>
       <c r="AP11" s="1">
-        <v>1.178830</v>
+        <v>1.17883</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1233.460000</v>
+        <v>1233.46</v>
       </c>
       <c r="AR11" s="1">
-        <v>-99.272700</v>
+        <v>-99.2727</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>4254.492609</v>
+        <v>4254.4926089999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>1.181804</v>
+        <v>1.1818040000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1243.160000</v>
+        <v>1243.1600000000001</v>
       </c>
       <c r="AW11" s="1">
-        <v>-118.023000</v>
+        <v>-118.023</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>4265.523634</v>
+        <v>4265.5236340000001</v>
       </c>
       <c r="AZ11" s="1">
         <v>1.184868</v>
       </c>
       <c r="BA11" s="1">
-        <v>1251.320000</v>
+        <v>1251.32</v>
       </c>
       <c r="BB11" s="1">
-        <v>-135.000000</v>
+        <v>-135</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>4276.179232</v>
+        <v>4276.1792320000004</v>
       </c>
       <c r="BE11" s="1">
-        <v>1.187828</v>
+        <v>1.1878280000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1289.990000</v>
+        <v>1289.99</v>
       </c>
       <c r="BG11" s="1">
-        <v>-214.807000</v>
+        <v>-214.80699999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>4286.695863</v>
+        <v>4286.6958629999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>1.190749</v>
+        <v>1.1907490000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1356.520000</v>
+        <v>1356.52</v>
       </c>
       <c r="BL11" s="1">
-        <v>-348.575000</v>
+        <v>-348.57499999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>4297.304297</v>
+        <v>4297.3042969999997</v>
       </c>
       <c r="BO11" s="1">
-        <v>1.193696</v>
+        <v>1.1936960000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1465.660000</v>
+        <v>1465.66</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-568.671000</v>
+        <v>-568.67100000000005</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>4307.777819</v>
+        <v>4307.7778189999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>1.196605</v>
+        <v>1.1966049999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1592.650000</v>
+        <v>1592.65</v>
       </c>
       <c r="BV11" s="1">
-        <v>-819.616000</v>
+        <v>-819.61599999999999</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>4318.936349</v>
+        <v>4318.9363489999996</v>
       </c>
       <c r="BY11" s="1">
         <v>1.199705</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1739.930000</v>
+        <v>1739.93</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1093.330000</v>
+        <v>-1093.33</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>4330.786236</v>
+        <v>4330.7862359999999</v>
       </c>
       <c r="CD11" s="1">
         <v>1.202996</v>
       </c>
       <c r="CE11" s="1">
-        <v>2150.900000</v>
+        <v>2150.9</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1761.460000</v>
+        <v>-1761.46</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>4159.691299</v>
+        <v>4159.6912990000001</v>
       </c>
       <c r="B12" s="1">
-        <v>1.155470</v>
+        <v>1.15547</v>
       </c>
       <c r="C12" s="1">
-        <v>1144.670000</v>
+        <v>1144.67</v>
       </c>
       <c r="D12" s="1">
-        <v>-256.685000</v>
+        <v>-256.685</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>4169.798737</v>
+        <v>4169.7987370000001</v>
       </c>
       <c r="G12" s="1">
         <v>1.158277</v>
       </c>
       <c r="H12" s="1">
-        <v>1166.070000</v>
+        <v>1166.07</v>
       </c>
       <c r="I12" s="1">
-        <v>-215.091000</v>
+        <v>-215.09100000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>4180.284163</v>
+        <v>4180.2841630000003</v>
       </c>
       <c r="L12" s="1">
-        <v>1.161190</v>
+        <v>1.1611899999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1192.440000</v>
+        <v>1192.44</v>
       </c>
       <c r="N12" s="1">
-        <v>-149.244000</v>
+        <v>-149.244</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>4190.754710</v>
+        <v>4190.7547100000002</v>
       </c>
       <c r="Q12" s="1">
         <v>1.164099</v>
       </c>
       <c r="R12" s="1">
-        <v>1200.230000</v>
+        <v>1200.23</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.146000</v>
+        <v>-127.146</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>4201.600760</v>
+        <v>4201.6007600000003</v>
       </c>
       <c r="V12" s="1">
         <v>1.167111</v>
       </c>
       <c r="W12" s="1">
-        <v>1207.250000</v>
+        <v>1207.25</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.200000</v>
+        <v>-106.2</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>4212.404089</v>
+        <v>4212.4040889999997</v>
       </c>
       <c r="AA12" s="1">
         <v>1.170112</v>
       </c>
       <c r="AB12" s="1">
-        <v>1214.470000</v>
+        <v>1214.47</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.157200</v>
+        <v>-89.157200000000003</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>4222.924235</v>
+        <v>4222.9242350000004</v>
       </c>
       <c r="AF12" s="1">
         <v>1.173035</v>
       </c>
       <c r="AG12" s="1">
-        <v>1218.840000</v>
+        <v>1218.8399999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-84.642900</v>
+        <v>-84.642899999999997</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>4233.443917</v>
+        <v>4233.4439169999996</v>
       </c>
       <c r="AK12" s="1">
-        <v>1.175957</v>
+        <v>1.1759569999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1225.690000</v>
+        <v>1225.69</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.754800</v>
+        <v>-87.754800000000003</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>4244.452622</v>
+        <v>4244.4526219999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>1.179015</v>
+        <v>1.1790149999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1233.460000</v>
+        <v>1233.46</v>
       </c>
       <c r="AR12" s="1">
-        <v>-99.261500</v>
+        <v>-99.261499999999998</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>4255.158769</v>
+        <v>4255.1587689999997</v>
       </c>
       <c r="AU12" s="1">
         <v>1.181989</v>
       </c>
       <c r="AV12" s="1">
-        <v>1243.170000</v>
+        <v>1243.17</v>
       </c>
       <c r="AW12" s="1">
-        <v>-118.005000</v>
+        <v>-118.005</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>4265.943779</v>
+        <v>4265.9437790000002</v>
       </c>
       <c r="AZ12" s="1">
         <v>1.184984</v>
       </c>
       <c r="BA12" s="1">
-        <v>1251.340000</v>
+        <v>1251.3399999999999</v>
       </c>
       <c r="BB12" s="1">
-        <v>-134.990000</v>
+        <v>-134.99</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>4276.614218</v>
+        <v>4276.6142179999997</v>
       </c>
       <c r="BE12" s="1">
         <v>1.187948</v>
       </c>
       <c r="BF12" s="1">
-        <v>1289.960000</v>
+        <v>1289.96</v>
       </c>
       <c r="BG12" s="1">
-        <v>-214.755000</v>
+        <v>-214.755</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>4287.075304</v>
       </c>
       <c r="BJ12" s="1">
-        <v>1.190854</v>
+        <v>1.1908540000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1356.530000</v>
+        <v>1356.53</v>
       </c>
       <c r="BL12" s="1">
-        <v>-348.622000</v>
+        <v>-348.62200000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>4297.703576</v>
+        <v>4297.7035759999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>1.193807</v>
+        <v>1.1938070000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1465.660000</v>
+        <v>1465.66</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-568.644000</v>
+        <v>-568.64400000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>4308.217294</v>
       </c>
       <c r="BT12" s="1">
-        <v>1.196727</v>
+        <v>1.1967270000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1592.600000</v>
+        <v>1592.6</v>
       </c>
       <c r="BV12" s="1">
-        <v>-819.634000</v>
+        <v>-819.63400000000001</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>4319.362911</v>
+        <v>4319.3629110000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>1.199823</v>
+        <v>1.1998230000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1739.930000</v>
+        <v>1739.93</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1093.190000</v>
+        <v>-1093.19</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>4331.320923</v>
+        <v>4331.3209230000002</v>
       </c>
       <c r="CD12" s="1">
-        <v>1.203145</v>
+        <v>1.2031449999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>2148.820000</v>
+        <v>2148.8200000000002</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1761.540000</v>
+        <v>-1761.54</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>4160.035005</v>
+        <v>4160.0350049999997</v>
       </c>
       <c r="B13" s="1">
         <v>1.155565</v>
       </c>
       <c r="C13" s="1">
-        <v>1144.540000</v>
+        <v>1144.54</v>
       </c>
       <c r="D13" s="1">
-        <v>-256.769000</v>
+        <v>-256.76900000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>4170.147923</v>
+        <v>4170.1479230000004</v>
       </c>
       <c r="G13" s="1">
         <v>1.158374</v>
       </c>
       <c r="H13" s="1">
-        <v>1165.620000</v>
+        <v>1165.6199999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-215.089000</v>
+        <v>-215.089</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>4180.978066</v>
+        <v>4180.9780659999997</v>
       </c>
       <c r="L13" s="1">
-        <v>1.161383</v>
+        <v>1.1613830000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1192.660000</v>
+        <v>1192.6600000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-149.186000</v>
+        <v>-149.18600000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>4191.452613</v>
+        <v>4191.4526130000004</v>
       </c>
       <c r="Q13" s="1">
-        <v>1.164292</v>
+        <v>1.1642920000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1200.160000</v>
+        <v>1200.1600000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.184000</v>
+        <v>-127.184</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>4201.943959</v>
+        <v>4201.9439590000002</v>
       </c>
       <c r="V13" s="1">
-        <v>1.167207</v>
+        <v>1.1672070000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1207.220000</v>
+        <v>1207.22</v>
       </c>
       <c r="X13" s="1">
-        <v>-106.302000</v>
+        <v>-106.30200000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>4212.766665</v>
+        <v>4212.7666650000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>1.170213</v>
+        <v>1.1702129999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1214.580000</v>
+        <v>1214.58</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.321000</v>
+        <v>-89.320999999999998</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>4223.267962</v>
+        <v>4223.2679619999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>1.173130</v>
+        <v>1.17313</v>
       </c>
       <c r="AG13" s="1">
-        <v>1218.820000</v>
+        <v>1218.82</v>
       </c>
       <c r="AH13" s="1">
-        <v>-84.628800</v>
+        <v>-84.628799999999998</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>4234.098642</v>
+        <v>4234.0986419999999</v>
       </c>
       <c r="AK13" s="1">
         <v>1.176139</v>
       </c>
       <c r="AL13" s="1">
-        <v>1225.680000</v>
+        <v>1225.68</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.742600</v>
+        <v>-87.742599999999996</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>4244.901998</v>
+        <v>4244.9019980000003</v>
       </c>
       <c r="AP13" s="1">
-        <v>1.179139</v>
+        <v>1.1791389999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1233.430000</v>
+        <v>1233.43</v>
       </c>
       <c r="AR13" s="1">
-        <v>-99.268300</v>
+        <v>-99.268299999999996</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>4255.622002</v>
+        <v>4255.6220020000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>1.182117</v>
+        <v>1.1821170000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1243.130000</v>
+        <v>1243.1300000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-118.035000</v>
+        <v>-118.035</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>4266.320211</v>
+        <v>4266.3202110000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>1.185089</v>
+        <v>1.1850890000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1251.320000</v>
+        <v>1251.32</v>
       </c>
       <c r="BB13" s="1">
-        <v>-134.991000</v>
+        <v>-134.99100000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>4276.981251</v>
+        <v>4276.9812510000002</v>
       </c>
       <c r="BE13" s="1">
-        <v>1.188050</v>
+        <v>1.1880500000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1289.960000</v>
+        <v>1289.96</v>
       </c>
       <c r="BG13" s="1">
-        <v>-214.812000</v>
+        <v>-214.81200000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>4287.450279</v>
+        <v>4287.4502789999997</v>
       </c>
       <c r="BJ13" s="1">
         <v>1.190958</v>
       </c>
       <c r="BK13" s="1">
-        <v>1356.570000</v>
+        <v>1356.57</v>
       </c>
       <c r="BL13" s="1">
-        <v>-348.601000</v>
+        <v>-348.601</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>4298.125175</v>
+        <v>4298.1251750000001</v>
       </c>
       <c r="BO13" s="1">
         <v>1.193924</v>
       </c>
       <c r="BP13" s="1">
-        <v>1465.700000</v>
+        <v>1465.7</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-568.657000</v>
+        <v>-568.65700000000004</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>4308.633923</v>
+        <v>4308.6339230000003</v>
       </c>
       <c r="BT13" s="1">
-        <v>1.196843</v>
+        <v>1.1968430000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1592.390000</v>
+        <v>1592.39</v>
       </c>
       <c r="BV13" s="1">
-        <v>-819.631000</v>
+        <v>-819.63099999999997</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>4319.787452</v>
+        <v>4319.7874519999996</v>
       </c>
       <c r="BY13" s="1">
-        <v>1.199941</v>
+        <v>1.1999409999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1739.820000</v>
+        <v>1739.82</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1093.280000</v>
+        <v>-1093.28</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>4331.863051</v>
+        <v>4331.8630510000003</v>
       </c>
       <c r="CD13" s="1">
         <v>1.203295</v>
       </c>
       <c r="CE13" s="1">
-        <v>2150.700000</v>
+        <v>2150.6999999999998</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1763.040000</v>
+        <v>-1763.04</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>4160.615805</v>
+        <v>4160.6158050000004</v>
       </c>
       <c r="B14" s="1">
-        <v>1.155727</v>
+        <v>1.1557269999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1144.880000</v>
+        <v>1144.8800000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-256.696000</v>
+        <v>-256.69600000000003</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>4170.835904</v>
+        <v>4170.8359039999996</v>
       </c>
       <c r="G14" s="1">
         <v>1.158566</v>
       </c>
       <c r="H14" s="1">
-        <v>1165.780000</v>
+        <v>1165.78</v>
       </c>
       <c r="I14" s="1">
-        <v>-215.325000</v>
+        <v>-215.32499999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>4181.326258</v>
+        <v>4181.3262580000001</v>
       </c>
       <c r="L14" s="1">
-        <v>1.161480</v>
+        <v>1.1614800000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1192.580000</v>
+        <v>1192.58</v>
       </c>
       <c r="N14" s="1">
-        <v>-149.411000</v>
+        <v>-149.411</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>4191.799781</v>
+        <v>4191.7997809999997</v>
       </c>
       <c r="Q14" s="1">
-        <v>1.164389</v>
+        <v>1.1643889999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1200.100000</v>
+        <v>1200.0999999999999</v>
       </c>
       <c r="S14" s="1">
-        <v>-127.148000</v>
+        <v>-127.148</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>4202.286198</v>
+        <v>4202.2861979999998</v>
       </c>
       <c r="V14" s="1">
-        <v>1.167302</v>
+        <v>1.1673020000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1207.080000</v>
+        <v>1207.08</v>
       </c>
       <c r="X14" s="1">
-        <v>-106.318000</v>
+        <v>-106.318</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>4213.418408</v>
+        <v>4213.4184080000005</v>
       </c>
       <c r="AA14" s="1">
-        <v>1.170394</v>
+        <v>1.1703939999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1214.380000</v>
+        <v>1214.3800000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.271000</v>
+        <v>-89.271000000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>4223.927179</v>
+        <v>4223.9271790000003</v>
       </c>
       <c r="AF14" s="1">
-        <v>1.173313</v>
+        <v>1.1733130000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1218.820000</v>
+        <v>1218.82</v>
       </c>
       <c r="AH14" s="1">
-        <v>-84.697300</v>
+        <v>-84.697299999999998</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>4234.491225</v>
+        <v>4234.4912249999998</v>
       </c>
       <c r="AK14" s="1">
         <v>1.176248</v>
       </c>
       <c r="AL14" s="1">
-        <v>1225.700000</v>
+        <v>1225.7</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.741400</v>
+        <v>-87.741399999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>4245.263581</v>
+        <v>4245.2635810000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>1.179240</v>
+        <v>1.1792400000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1233.460000</v>
+        <v>1233.46</v>
       </c>
       <c r="AR14" s="1">
-        <v>-99.292200</v>
+        <v>-99.292199999999994</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>4255.984575</v>
+        <v>4255.9845750000004</v>
       </c>
       <c r="AU14" s="1">
         <v>1.182218</v>
       </c>
       <c r="AV14" s="1">
-        <v>1243.160000</v>
+        <v>1243.1600000000001</v>
       </c>
       <c r="AW14" s="1">
-        <v>-118.020000</v>
+        <v>-118.02</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>4266.710561</v>
+        <v>4266.7105609999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>1.185197</v>
+        <v>1.1851970000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1251.330000</v>
+        <v>1251.33</v>
       </c>
       <c r="BB14" s="1">
-        <v>-135.001000</v>
+        <v>-135.001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>4277.396372</v>
+        <v>4277.3963720000002</v>
       </c>
       <c r="BE14" s="1">
-        <v>1.188166</v>
+        <v>1.1881660000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1289.980000</v>
+        <v>1289.98</v>
       </c>
       <c r="BG14" s="1">
-        <v>-214.758000</v>
+        <v>-214.75800000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>4287.866917</v>
+        <v>4287.8669170000003</v>
       </c>
       <c r="BJ14" s="1">
         <v>1.191074</v>
       </c>
       <c r="BK14" s="1">
-        <v>1356.510000</v>
+        <v>1356.51</v>
       </c>
       <c r="BL14" s="1">
-        <v>-348.572000</v>
+        <v>-348.572</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>4298.521479</v>
@@ -3760,861 +4176,861 @@
         <v>1.194034</v>
       </c>
       <c r="BP14" s="1">
-        <v>1465.710000</v>
+        <v>1465.71</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-568.728000</v>
+        <v>-568.72799999999995</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>4309.047577</v>
+        <v>4309.0475770000003</v>
       </c>
       <c r="BT14" s="1">
         <v>1.196958</v>
       </c>
       <c r="BU14" s="1">
-        <v>1592.300000</v>
+        <v>1592.3</v>
       </c>
       <c r="BV14" s="1">
-        <v>-819.661000</v>
+        <v>-819.66099999999994</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>4320.203100</v>
+        <v>4320.2030999999997</v>
       </c>
       <c r="BY14" s="1">
         <v>1.200056</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1740.050000</v>
+        <v>1740.05</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1093.200000</v>
+        <v>-1093.2</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>4332.403196</v>
+        <v>4332.4031960000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>1.203445</v>
+        <v>1.2034450000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>2149.770000</v>
+        <v>2149.77</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1760.830000</v>
+        <v>-1760.83</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>4160.725949</v>
+        <v>4160.7259489999997</v>
       </c>
       <c r="B15" s="1">
-        <v>1.155757</v>
+        <v>1.1557569999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1144.790000</v>
+        <v>1144.79</v>
       </c>
       <c r="D15" s="1">
-        <v>-256.636000</v>
+        <v>-256.63600000000002</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>4171.174144</v>
+        <v>4171.1741439999996</v>
       </c>
       <c r="G15" s="1">
-        <v>1.158659</v>
+        <v>1.1586590000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1165.940000</v>
+        <v>1165.94</v>
       </c>
       <c r="I15" s="1">
-        <v>-215.278000</v>
+        <v>-215.27799999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>4181.671475</v>
+        <v>4181.6714750000001</v>
       </c>
       <c r="L15" s="1">
         <v>1.161575</v>
       </c>
       <c r="M15" s="1">
-        <v>1192.570000</v>
+        <v>1192.57</v>
       </c>
       <c r="N15" s="1">
-        <v>-149.290000</v>
+        <v>-149.29</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>4192.151940</v>
+        <v>4192.1519399999997</v>
       </c>
       <c r="Q15" s="1">
         <v>1.164487</v>
       </c>
       <c r="R15" s="1">
-        <v>1200.080000</v>
+        <v>1200.08</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.097000</v>
+        <v>-127.09699999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>4202.928519</v>
+        <v>4202.9285190000001</v>
       </c>
       <c r="V15" s="1">
-        <v>1.167480</v>
+        <v>1.1674800000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1207.130000</v>
+        <v>1207.1300000000001</v>
       </c>
       <c r="X15" s="1">
-        <v>-106.378000</v>
+        <v>-106.378</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>4213.811772</v>
       </c>
       <c r="AA15" s="1">
-        <v>1.170503</v>
+        <v>1.1705030000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>1214.210000</v>
+        <v>1214.21</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.115500</v>
+        <v>-89.115499999999997</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>4224.295704</v>
+        <v>4224.2957040000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>1.173415</v>
+        <v>1.1734150000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1218.830000</v>
+        <v>1218.83</v>
       </c>
       <c r="AH15" s="1">
-        <v>-84.634200</v>
+        <v>-84.634200000000007</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>4234.849547</v>
+        <v>4234.8495469999998</v>
       </c>
       <c r="AK15" s="1">
         <v>1.176347</v>
       </c>
       <c r="AL15" s="1">
-        <v>1225.680000</v>
+        <v>1225.68</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.736200</v>
+        <v>-87.736199999999997</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>4245.621661</v>
+        <v>4245.6216610000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>1.179339</v>
+        <v>1.1793389999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1233.450000</v>
+        <v>1233.45</v>
       </c>
       <c r="AR15" s="1">
-        <v>-99.246800</v>
+        <v>-99.246799999999993</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>4256.349632</v>
+        <v>4256.3496320000004</v>
       </c>
       <c r="AU15" s="1">
-        <v>1.182319</v>
+        <v>1.1823189999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1243.160000</v>
+        <v>1243.1600000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-118.010000</v>
+        <v>-118.01</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>4267.127201</v>
+        <v>4267.1272010000002</v>
       </c>
       <c r="AZ15" s="1">
-        <v>1.185313</v>
+        <v>1.1853130000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1251.340000</v>
+        <v>1251.3399999999999</v>
       </c>
       <c r="BB15" s="1">
-        <v>-134.983000</v>
+        <v>-134.983</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>4277.703395</v>
+        <v>4277.7033949999995</v>
       </c>
       <c r="BE15" s="1">
-        <v>1.188251</v>
+        <v>1.1882509999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1289.970000</v>
+        <v>1289.97</v>
       </c>
       <c r="BG15" s="1">
-        <v>-214.791000</v>
+        <v>-214.791</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>4288.223573</v>
+        <v>4288.2235730000002</v>
       </c>
       <c r="BJ15" s="1">
         <v>1.191173</v>
       </c>
       <c r="BK15" s="1">
-        <v>1356.510000</v>
+        <v>1356.51</v>
       </c>
       <c r="BL15" s="1">
-        <v>-348.609000</v>
+        <v>-348.60899999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>4298.941094</v>
+        <v>4298.9410939999998</v>
       </c>
       <c r="BO15" s="1">
-        <v>1.194150</v>
+        <v>1.19415</v>
       </c>
       <c r="BP15" s="1">
-        <v>1465.630000</v>
+        <v>1465.63</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-568.680000</v>
+        <v>-568.67999999999995</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>4309.460248</v>
+        <v>4309.4602480000003</v>
       </c>
       <c r="BT15" s="1">
-        <v>1.197072</v>
+        <v>1.1970719999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1592.180000</v>
+        <v>1592.18</v>
       </c>
       <c r="BV15" s="1">
-        <v>-819.503000</v>
+        <v>-819.50300000000004</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>4320.658922</v>
+        <v>4320.6589219999996</v>
       </c>
       <c r="BY15" s="1">
         <v>1.200183</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1740.000000</v>
+        <v>1740</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1093.130000</v>
+        <v>-1093.1300000000001</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>4332.943866</v>
+        <v>4332.9438659999996</v>
       </c>
       <c r="CD15" s="1">
-        <v>1.203596</v>
+        <v>1.2035960000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>2149.140000</v>
+        <v>2149.14</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1762.610000</v>
+        <v>-1762.61</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>4161.069682</v>
+        <v>4161.0696820000003</v>
       </c>
       <c r="B16" s="1">
         <v>1.155853</v>
       </c>
       <c r="C16" s="1">
-        <v>1144.830000</v>
+        <v>1144.83</v>
       </c>
       <c r="D16" s="1">
-        <v>-256.851000</v>
+        <v>-256.851</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>4171.525311</v>
+        <v>4171.5253110000003</v>
       </c>
       <c r="G16" s="1">
         <v>1.158757</v>
       </c>
       <c r="H16" s="1">
-        <v>1165.900000</v>
+        <v>1165.9000000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-215.358000</v>
+        <v>-215.358</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>4182.325698</v>
+        <v>4182.3256979999996</v>
       </c>
       <c r="L16" s="1">
-        <v>1.161757</v>
+        <v>1.1617569999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1192.710000</v>
+        <v>1192.71</v>
       </c>
       <c r="N16" s="1">
-        <v>-149.224000</v>
+        <v>-149.22399999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>4192.803188</v>
+        <v>4192.8031879999999</v>
       </c>
       <c r="Q16" s="1">
         <v>1.164668</v>
       </c>
       <c r="R16" s="1">
-        <v>1200.190000</v>
+        <v>1200.19</v>
       </c>
       <c r="S16" s="1">
-        <v>-127.141000</v>
+        <v>-127.14100000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>4203.316389</v>
+        <v>4203.3163889999996</v>
       </c>
       <c r="V16" s="1">
-        <v>1.167588</v>
+        <v>1.1675880000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1207.140000</v>
+        <v>1207.1400000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>-106.276000</v>
+        <v>-106.276</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>4214.161415</v>
+        <v>4214.1614149999996</v>
       </c>
       <c r="AA16" s="1">
-        <v>1.170600</v>
+        <v>1.1706000000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1214.400000</v>
+        <v>1214.4000000000001</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.126100</v>
+        <v>-89.126099999999994</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>4224.641385</v>
+        <v>4224.6413849999999</v>
       </c>
       <c r="AF16" s="1">
         <v>1.173511</v>
       </c>
       <c r="AG16" s="1">
-        <v>1218.800000</v>
+        <v>1218.8</v>
       </c>
       <c r="AH16" s="1">
-        <v>-84.642800</v>
+        <v>-84.642799999999994</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>4235.189309</v>
+        <v>4235.1893090000003</v>
       </c>
       <c r="AK16" s="1">
-        <v>1.176441</v>
+        <v>1.1764410000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1225.670000</v>
+        <v>1225.67</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.764000</v>
+        <v>-87.763999999999996</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>4246.036316</v>
+        <v>4246.0363159999997</v>
       </c>
       <c r="AP16" s="1">
-        <v>1.179455</v>
+        <v>1.1794549999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1233.410000</v>
+        <v>1233.4100000000001</v>
       </c>
       <c r="AR16" s="1">
-        <v>-99.251600</v>
+        <v>-99.251599999999996</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>4256.778174</v>
       </c>
       <c r="AU16" s="1">
-        <v>1.182438</v>
+        <v>1.1824380000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1243.170000</v>
+        <v>1243.17</v>
       </c>
       <c r="AW16" s="1">
-        <v>-118.006000</v>
+        <v>-118.006</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>4267.425297</v>
+        <v>4267.4252969999998</v>
       </c>
       <c r="AZ16" s="1">
-        <v>1.185396</v>
+        <v>1.1853959999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1251.330000</v>
+        <v>1251.33</v>
       </c>
       <c r="BB16" s="1">
-        <v>-134.978000</v>
+        <v>-134.97800000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>4278.062531</v>
+        <v>4278.0625309999996</v>
       </c>
       <c r="BE16" s="1">
-        <v>1.188351</v>
+        <v>1.1883509999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1289.970000</v>
+        <v>1289.97</v>
       </c>
       <c r="BG16" s="1">
-        <v>-214.820000</v>
+        <v>-214.82</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>4288.598022</v>
+        <v>4288.5980220000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>1.191277</v>
+        <v>1.1912769999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1356.570000</v>
+        <v>1356.57</v>
       </c>
       <c r="BL16" s="1">
-        <v>-348.617000</v>
+        <v>-348.61700000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>4299.336438</v>
+        <v>4299.3364380000003</v>
       </c>
       <c r="BO16" s="1">
-        <v>1.194260</v>
+        <v>1.1942600000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1465.690000</v>
+        <v>1465.69</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-568.697000</v>
+        <v>-568.697</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>4310.201768</v>
+        <v>4310.2017679999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>1.197278</v>
+        <v>1.1972780000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1592.060000</v>
+        <v>1592.06</v>
       </c>
       <c r="BV16" s="1">
-        <v>-819.203000</v>
+        <v>-819.20299999999997</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>4321.102842</v>
+        <v>4321.1028420000002</v>
       </c>
       <c r="BY16" s="1">
-        <v>1.200306</v>
+        <v>1.2003060000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1739.920000</v>
+        <v>1739.92</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1093.140000</v>
+        <v>-1093.1400000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>4333.483481</v>
+        <v>4333.4834810000002</v>
       </c>
       <c r="CD16" s="1">
-        <v>1.203745</v>
+        <v>1.2037450000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>2151.100000</v>
+        <v>2151.1</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1762.200000</v>
+        <v>-1762.2</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>4161.718413</v>
+        <v>4161.7184129999996</v>
       </c>
       <c r="B17" s="1">
-        <v>1.156033</v>
+        <v>1.1560330000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1144.990000</v>
+        <v>1144.99</v>
       </c>
       <c r="D17" s="1">
-        <v>-256.744000</v>
+        <v>-256.74400000000003</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>4172.165183</v>
+        <v>4172.1651830000001</v>
       </c>
       <c r="G17" s="1">
         <v>1.158935</v>
       </c>
       <c r="H17" s="1">
-        <v>1165.870000</v>
+        <v>1165.8699999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-215.285000</v>
+        <v>-215.285</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>4182.709633</v>
+        <v>4182.7096330000004</v>
       </c>
       <c r="L17" s="1">
         <v>1.161864</v>
       </c>
       <c r="M17" s="1">
-        <v>1192.410000</v>
+        <v>1192.4100000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-149.392000</v>
+        <v>-149.392</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>4193.194530</v>
+        <v>4193.1945299999998</v>
       </c>
       <c r="Q17" s="1">
         <v>1.164776</v>
       </c>
       <c r="R17" s="1">
-        <v>1200.240000</v>
+        <v>1200.24</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.151000</v>
+        <v>-127.151</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>4203.661108</v>
+        <v>4203.6611080000002</v>
       </c>
       <c r="V17" s="1">
-        <v>1.167684</v>
+        <v>1.1676839999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1207.110000</v>
+        <v>1207.1099999999999</v>
       </c>
       <c r="X17" s="1">
-        <v>-106.283000</v>
+        <v>-106.283</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>4214.508151</v>
       </c>
       <c r="AA17" s="1">
-        <v>1.170697</v>
+        <v>1.1706970000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1214.320000</v>
+        <v>1214.32</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.177500</v>
+        <v>-89.177499999999995</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>4224.988623</v>
+        <v>4224.9886230000002</v>
       </c>
       <c r="AF17" s="1">
         <v>1.173608</v>
       </c>
       <c r="AG17" s="1">
-        <v>1218.810000</v>
+        <v>1218.81</v>
       </c>
       <c r="AH17" s="1">
-        <v>-84.630400</v>
+        <v>-84.630399999999995</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>4235.603499</v>
+        <v>4235.6034989999998</v>
       </c>
       <c r="AK17" s="1">
-        <v>1.176557</v>
+        <v>1.1765570000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1225.650000</v>
+        <v>1225.6500000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.739000</v>
+        <v>-87.739000000000004</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>4246.341884</v>
+        <v>4246.3418840000004</v>
       </c>
       <c r="AP17" s="1">
-        <v>1.179539</v>
+        <v>1.1795389999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1233.440000</v>
+        <v>1233.44</v>
       </c>
       <c r="AR17" s="1">
-        <v>-99.265100</v>
+        <v>-99.265100000000004</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>4257.077262</v>
+        <v>4257.0772619999998</v>
       </c>
       <c r="AU17" s="1">
-        <v>1.182521</v>
+        <v>1.1825209999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1243.150000</v>
+        <v>1243.1500000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-118.004000</v>
+        <v>-118.004</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>4267.784927</v>
+        <v>4267.7849269999997</v>
       </c>
       <c r="AZ17" s="1">
-        <v>1.185496</v>
+        <v>1.1854960000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1251.350000</v>
+        <v>1251.3499999999999</v>
       </c>
       <c r="BB17" s="1">
-        <v>-135.000000</v>
+        <v>-135</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>4278.426594</v>
+        <v>4278.4265939999996</v>
       </c>
       <c r="BE17" s="1">
-        <v>1.188452</v>
+        <v>1.1884520000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1290.000000</v>
+        <v>1290</v>
       </c>
       <c r="BG17" s="1">
-        <v>-214.789000</v>
+        <v>-214.78899999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>4288.974485</v>
+        <v>4288.9744849999997</v>
       </c>
       <c r="BJ17" s="1">
-        <v>1.191382</v>
+        <v>1.1913819999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1356.540000</v>
+        <v>1356.54</v>
       </c>
       <c r="BL17" s="1">
-        <v>-348.607000</v>
+        <v>-348.60700000000003</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>4299.762469</v>
+        <v>4299.7624690000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>1.194378</v>
+        <v>1.1943779999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1465.680000</v>
+        <v>1465.68</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-568.659000</v>
+        <v>-568.65899999999999</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>4310.725049</v>
+        <v>4310.7250489999997</v>
       </c>
       <c r="BT17" s="1">
         <v>1.197424</v>
       </c>
       <c r="BU17" s="1">
-        <v>1592.140000</v>
+        <v>1592.14</v>
       </c>
       <c r="BV17" s="1">
-        <v>-819.132000</v>
+        <v>-819.13199999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>4321.526953</v>
+        <v>4321.5269529999996</v>
       </c>
       <c r="BY17" s="1">
-        <v>1.200424</v>
+        <v>1.2004239999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1739.890000</v>
+        <v>1739.89</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1093.230000</v>
+        <v>-1093.23</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>4334.022136</v>
+        <v>4334.0221359999996</v>
       </c>
       <c r="CD17" s="1">
-        <v>1.203895</v>
+        <v>1.2038949999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>2148.560000</v>
+        <v>2148.56</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1761.380000</v>
+        <v>-1761.38</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>4162.097638</v>
+        <v>4162.0976380000002</v>
       </c>
       <c r="B18" s="1">
-        <v>1.156138</v>
+        <v>1.1561380000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1144.530000</v>
+        <v>1144.53</v>
       </c>
       <c r="D18" s="1">
-        <v>-256.738000</v>
+        <v>-256.738</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>4172.562446</v>
+        <v>4172.5624459999999</v>
       </c>
       <c r="G18" s="1">
-        <v>1.159045</v>
+        <v>1.1590450000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1165.760000</v>
+        <v>1165.76</v>
       </c>
       <c r="I18" s="1">
-        <v>-215.040000</v>
+        <v>-215.04</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>4183.049892</v>
@@ -4623,390 +5039,390 @@
         <v>1.161958</v>
       </c>
       <c r="M18" s="1">
-        <v>1192.710000</v>
+        <v>1192.71</v>
       </c>
       <c r="N18" s="1">
-        <v>-148.934000</v>
+        <v>-148.934</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>4193.545698</v>
+        <v>4193.5456979999999</v>
       </c>
       <c r="Q18" s="1">
         <v>1.164874</v>
       </c>
       <c r="R18" s="1">
-        <v>1200.140000</v>
+        <v>1200.1400000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-127.185000</v>
+        <v>-127.185</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>4203.993429</v>
+        <v>4203.9934290000001</v>
       </c>
       <c r="V18" s="1">
-        <v>1.167776</v>
+        <v>1.1677759999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1207.180000</v>
+        <v>1207.18</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.251000</v>
+        <v>-106.251</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>4214.918806</v>
+        <v>4214.9188059999997</v>
       </c>
       <c r="AA18" s="1">
         <v>1.170811</v>
       </c>
       <c r="AB18" s="1">
-        <v>1214.420000</v>
+        <v>1214.42</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.294100</v>
+        <v>-89.2941</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>4225.414152</v>
+        <v>4225.4141520000003</v>
       </c>
       <c r="AF18" s="1">
         <v>1.173726</v>
       </c>
       <c r="AG18" s="1">
-        <v>1218.830000</v>
+        <v>1218.83</v>
       </c>
       <c r="AH18" s="1">
-        <v>-84.603600</v>
+        <v>-84.6036</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>4235.897098</v>
+        <v>4235.8970980000004</v>
       </c>
       <c r="AK18" s="1">
-        <v>1.176638</v>
+        <v>1.1766380000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1225.670000</v>
+        <v>1225.67</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.752200</v>
+        <v>-87.752200000000002</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>4246.702444</v>
+        <v>4246.7024439999996</v>
       </c>
       <c r="AP18" s="1">
-        <v>1.179640</v>
+        <v>1.17964</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1233.410000</v>
+        <v>1233.4100000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-99.274600</v>
+        <v>-99.274600000000007</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>4257.441821</v>
+        <v>4257.4418210000003</v>
       </c>
       <c r="AU18" s="1">
         <v>1.182623</v>
       </c>
       <c r="AV18" s="1">
-        <v>1243.150000</v>
+        <v>1243.1500000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-118.040000</v>
+        <v>-118.04</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>4268.145024</v>
+        <v>4268.1450240000004</v>
       </c>
       <c r="AZ18" s="1">
-        <v>1.185596</v>
+        <v>1.1855960000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1251.340000</v>
+        <v>1251.3399999999999</v>
       </c>
       <c r="BB18" s="1">
-        <v>-135.024000</v>
+        <v>-135.024</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>4279.148736</v>
+        <v>4279.1487360000001</v>
       </c>
       <c r="BE18" s="1">
         <v>1.188652</v>
       </c>
       <c r="BF18" s="1">
-        <v>1289.990000</v>
+        <v>1289.99</v>
       </c>
       <c r="BG18" s="1">
-        <v>-214.809000</v>
+        <v>-214.809</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>4289.724436</v>
+        <v>4289.7244360000004</v>
       </c>
       <c r="BJ18" s="1">
-        <v>1.191590</v>
+        <v>1.1915899999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1356.500000</v>
+        <v>1356.5</v>
       </c>
       <c r="BL18" s="1">
-        <v>-348.594000</v>
+        <v>-348.59399999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>4300.157781</v>
+        <v>4300.1577809999999</v>
       </c>
       <c r="BO18" s="1">
         <v>1.194488</v>
       </c>
       <c r="BP18" s="1">
-        <v>1465.690000</v>
+        <v>1465.69</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-568.679000</v>
+        <v>-568.67899999999997</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>4311.158550</v>
+        <v>4311.1585500000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>1.197544</v>
+        <v>1.1975439999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1592.140000</v>
+        <v>1592.14</v>
       </c>
       <c r="BV18" s="1">
-        <v>-818.966000</v>
+        <v>-818.96600000000001</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>4321.949856</v>
+        <v>4321.9498560000002</v>
       </c>
       <c r="BY18" s="1">
         <v>1.200542</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1739.970000</v>
+        <v>1739.97</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1093.220000</v>
+        <v>-1093.22</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>4334.879719</v>
+        <v>4334.8797189999996</v>
       </c>
       <c r="CD18" s="1">
-        <v>1.204133</v>
+        <v>1.2041329999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>2150.880000</v>
+        <v>2150.88</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1760.830000</v>
+        <v>-1760.83</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>4162.446548</v>
+        <v>4162.4465479999999</v>
       </c>
       <c r="B19" s="1">
-        <v>1.156235</v>
+        <v>1.1562349999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1144.810000</v>
+        <v>1144.81</v>
       </c>
       <c r="D19" s="1">
-        <v>-256.603000</v>
+        <v>-256.60300000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>4172.905677</v>
+        <v>4172.9056769999997</v>
       </c>
       <c r="G19" s="1">
-        <v>1.159140</v>
+        <v>1.1591400000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1165.850000</v>
+        <v>1165.8499999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-215.261000</v>
+        <v>-215.261</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>4183.398544</v>
+        <v>4183.3985439999997</v>
       </c>
       <c r="L19" s="1">
-        <v>1.162055</v>
+        <v>1.1620550000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1192.770000</v>
+        <v>1192.77</v>
       </c>
       <c r="N19" s="1">
-        <v>-149.093000</v>
+        <v>-149.09299999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>4193.984694</v>
+        <v>4193.9846939999998</v>
       </c>
       <c r="Q19" s="1">
-        <v>1.164996</v>
+        <v>1.1649959999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1200.110000</v>
+        <v>1200.1099999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-127.142000</v>
+        <v>-127.142</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>4204.430900</v>
+        <v>4204.4309000000003</v>
       </c>
       <c r="V19" s="1">
         <v>1.167897</v>
       </c>
       <c r="W19" s="1">
-        <v>1207.130000</v>
+        <v>1207.1300000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-106.321000</v>
+        <v>-106.321</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>4215.215413</v>
+        <v>4215.2154129999999</v>
       </c>
       <c r="AA19" s="1">
         <v>1.170893</v>
       </c>
       <c r="AB19" s="1">
-        <v>1214.340000</v>
+        <v>1214.3399999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.302500</v>
+        <v>-89.302499999999995</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>4225.694887</v>
+        <v>4225.6948869999997</v>
       </c>
       <c r="AF19" s="1">
-        <v>1.173804</v>
+        <v>1.1738040000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1218.770000</v>
+        <v>1218.77</v>
       </c>
       <c r="AH19" s="1">
-        <v>-84.628100</v>
+        <v>-84.628100000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>4236.242841</v>
+        <v>4236.2428410000002</v>
       </c>
       <c r="AK19" s="1">
-        <v>1.176734</v>
+        <v>1.1767339999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1225.690000</v>
+        <v>1225.69</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.756300</v>
+        <v>-87.756299999999996</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>4247.062540</v>
+        <v>4247.0625399999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>1.179740</v>
+        <v>1.17974</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1233.450000</v>
+        <v>1233.45</v>
       </c>
       <c r="AR19" s="1">
-        <v>-99.267600</v>
+        <v>-99.267600000000002</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>4257.805640</v>
+        <v>4257.8056399999996</v>
       </c>
       <c r="AU19" s="1">
-        <v>1.182724</v>
+        <v>1.1827240000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1243.130000</v>
+        <v>1243.1300000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-118.003000</v>
+        <v>-118.003</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>4268.861711</v>
+        <v>4268.8617109999996</v>
       </c>
       <c r="AZ19" s="1">
-        <v>1.185795</v>
+        <v>1.1857949999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1251.330000</v>
+        <v>1251.33</v>
       </c>
       <c r="BB19" s="1">
-        <v>-135.004000</v>
+        <v>-135.00399999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>4279.538098</v>
@@ -5015,587 +5431,587 @@
         <v>1.188761</v>
       </c>
       <c r="BF19" s="1">
-        <v>1289.970000</v>
+        <v>1289.97</v>
       </c>
       <c r="BG19" s="1">
-        <v>-214.781000</v>
+        <v>-214.78100000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>4290.101899</v>
+        <v>4290.1018990000002</v>
       </c>
       <c r="BJ19" s="1">
-        <v>1.191695</v>
+        <v>1.1916949999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1356.520000</v>
+        <v>1356.52</v>
       </c>
       <c r="BL19" s="1">
-        <v>-348.598000</v>
+        <v>-348.59800000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>4300.576443</v>
+        <v>4300.5764429999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>1.194605</v>
+        <v>1.1946049999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1465.700000</v>
+        <v>1465.7</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-568.695000</v>
+        <v>-568.69500000000005</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>4311.894119</v>
+        <v>4311.8941189999996</v>
       </c>
       <c r="BT19" s="1">
         <v>1.197748</v>
       </c>
       <c r="BU19" s="1">
-        <v>1592.230000</v>
+        <v>1592.23</v>
       </c>
       <c r="BV19" s="1">
-        <v>-818.909000</v>
+        <v>-818.90899999999999</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>4322.678135</v>
+        <v>4322.6781350000001</v>
       </c>
       <c r="BY19" s="1">
         <v>1.200744</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1740.080000</v>
+        <v>1740.08</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1093.150000</v>
+        <v>-1093.1500000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>4335.101927</v>
+        <v>4335.1019269999997</v>
       </c>
       <c r="CD19" s="1">
-        <v>1.204195</v>
+        <v>1.2041949999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>2151.460000</v>
+        <v>2151.46</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1761.160000</v>
+        <v>-1761.16</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>4162.787291</v>
+        <v>4162.7872909999996</v>
       </c>
       <c r="B20" s="1">
-        <v>1.156330</v>
+        <v>1.1563300000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1144.770000</v>
+        <v>1144.77</v>
       </c>
       <c r="D20" s="1">
-        <v>-256.973000</v>
+        <v>-256.97300000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>4173.252382</v>
+        <v>4173.2523819999997</v>
       </c>
       <c r="G20" s="1">
-        <v>1.159237</v>
+        <v>1.1592370000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1165.900000</v>
+        <v>1165.9000000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-215.272000</v>
+        <v>-215.27199999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>4183.814721</v>
+        <v>4183.8147209999997</v>
       </c>
       <c r="L20" s="1">
-        <v>1.162171</v>
+        <v>1.1621710000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1192.540000</v>
+        <v>1192.54</v>
       </c>
       <c r="N20" s="1">
-        <v>-149.400000</v>
+        <v>-149.4</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>4194.240625</v>
+        <v>4194.2406250000004</v>
       </c>
       <c r="Q20" s="1">
-        <v>1.165067</v>
+        <v>1.1650670000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1200.140000</v>
+        <v>1200.1400000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-127.144000</v>
+        <v>-127.14400000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>4204.690835</v>
+        <v>4204.6908350000003</v>
       </c>
       <c r="V20" s="1">
-        <v>1.167970</v>
+        <v>1.16797</v>
       </c>
       <c r="W20" s="1">
-        <v>1207.240000</v>
+        <v>1207.24</v>
       </c>
       <c r="X20" s="1">
-        <v>-106.271000</v>
+        <v>-106.271</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>4215.565093</v>
+        <v>4215.5650930000002</v>
       </c>
       <c r="AA20" s="1">
-        <v>1.170990</v>
+        <v>1.17099</v>
       </c>
       <c r="AB20" s="1">
-        <v>1214.340000</v>
+        <v>1214.3399999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.224400</v>
+        <v>-89.224400000000003</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>4226.036135</v>
+        <v>4226.0361350000003</v>
       </c>
       <c r="AF20" s="1">
         <v>1.173899</v>
       </c>
       <c r="AG20" s="1">
-        <v>1218.860000</v>
+        <v>1218.8599999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-84.640100</v>
+        <v>-84.640100000000004</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>4236.592521</v>
+        <v>4236.5925209999996</v>
       </c>
       <c r="AK20" s="1">
         <v>1.176831</v>
       </c>
       <c r="AL20" s="1">
-        <v>1225.690000</v>
+        <v>1225.69</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.773200</v>
+        <v>-87.773200000000003</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>4247.782768</v>
       </c>
       <c r="AP20" s="1">
-        <v>1.179940</v>
+        <v>1.17994</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1233.440000</v>
+        <v>1233.44</v>
       </c>
       <c r="AR20" s="1">
-        <v>-99.267500</v>
+        <v>-99.267499999999998</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>4258.535526</v>
+        <v>4258.5355259999997</v>
       </c>
       <c r="AU20" s="1">
-        <v>1.182927</v>
+        <v>1.1829270000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1243.140000</v>
+        <v>1243.1400000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-118.007000</v>
+        <v>-118.00700000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>4269.218831</v>
+        <v>4269.2188310000001</v>
       </c>
       <c r="AZ20" s="1">
         <v>1.185894</v>
       </c>
       <c r="BA20" s="1">
-        <v>1251.320000</v>
+        <v>1251.32</v>
       </c>
       <c r="BB20" s="1">
-        <v>-134.962000</v>
+        <v>-134.96199999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>4279.914100</v>
+        <v>4279.9141</v>
       </c>
       <c r="BE20" s="1">
-        <v>1.188865</v>
+        <v>1.1888650000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1289.940000</v>
+        <v>1289.94</v>
       </c>
       <c r="BG20" s="1">
-        <v>-214.766000</v>
+        <v>-214.76599999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>4290.476371</v>
+        <v>4290.4763709999997</v>
       </c>
       <c r="BJ20" s="1">
-        <v>1.191799</v>
+        <v>1.1917990000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1356.520000</v>
+        <v>1356.52</v>
       </c>
       <c r="BL20" s="1">
-        <v>-348.608000</v>
+        <v>-348.608</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>4301.285207</v>
+        <v>4301.2852069999999</v>
       </c>
       <c r="BO20" s="1">
         <v>1.194801</v>
       </c>
       <c r="BP20" s="1">
-        <v>1465.720000</v>
+        <v>1465.72</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-568.706000</v>
+        <v>-568.70600000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>4312.032006</v>
+        <v>4312.0320060000004</v>
       </c>
       <c r="BT20" s="1">
-        <v>1.197787</v>
+        <v>1.1977869999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1592.430000</v>
+        <v>1592.43</v>
       </c>
       <c r="BV20" s="1">
-        <v>-818.792000</v>
+        <v>-818.79200000000003</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>4322.788249</v>
+        <v>4322.7882490000002</v>
       </c>
       <c r="BY20" s="1">
-        <v>1.200775</v>
+        <v>1.2007749999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1740.030000</v>
+        <v>1740.03</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1093.120000</v>
+        <v>-1093.1199999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>4335.621238</v>
+        <v>4335.6212379999997</v>
       </c>
       <c r="CD20" s="1">
         <v>1.204339</v>
       </c>
       <c r="CE20" s="1">
-        <v>2149.210000</v>
+        <v>2149.21</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1760.560000</v>
+        <v>-1760.56</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>4163.205418</v>
+        <v>4163.2054179999996</v>
       </c>
       <c r="B21" s="1">
-        <v>1.156446</v>
+        <v>1.1564460000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1144.810000</v>
+        <v>1144.81</v>
       </c>
       <c r="D21" s="1">
-        <v>-256.757000</v>
+        <v>-256.75700000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>4173.670044</v>
+        <v>4173.6700440000004</v>
       </c>
       <c r="G21" s="1">
-        <v>1.159353</v>
+        <v>1.1593530000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1166.140000</v>
+        <v>1166.1400000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-215.282000</v>
+        <v>-215.28200000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>4184.108318</v>
+        <v>4184.1083179999996</v>
       </c>
       <c r="L21" s="1">
-        <v>1.162252</v>
+        <v>1.1622520000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1192.720000</v>
+        <v>1192.72</v>
       </c>
       <c r="N21" s="1">
-        <v>-149.339000</v>
+        <v>-149.339</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>4194.590272</v>
+        <v>4194.5902720000004</v>
       </c>
       <c r="Q21" s="1">
-        <v>1.165164</v>
+        <v>1.1651640000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1200.100000</v>
+        <v>1200.0999999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.111000</v>
+        <v>-127.111</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>4205.037012</v>
+        <v>4205.0370119999998</v>
       </c>
       <c r="V21" s="1">
         <v>1.168066</v>
       </c>
       <c r="W21" s="1">
-        <v>1207.140000</v>
+        <v>1207.1400000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-106.318000</v>
+        <v>-106.318</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>4215.912821</v>
+        <v>4215.9128209999999</v>
       </c>
       <c r="AA21" s="1">
         <v>1.171087</v>
       </c>
       <c r="AB21" s="1">
-        <v>1214.310000</v>
+        <v>1214.31</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.313200</v>
+        <v>-89.313199999999995</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>4226.390311</v>
+        <v>4226.3903110000001</v>
       </c>
       <c r="AF21" s="1">
         <v>1.173997</v>
       </c>
       <c r="AG21" s="1">
-        <v>1218.820000</v>
+        <v>1218.82</v>
       </c>
       <c r="AH21" s="1">
-        <v>-84.651500</v>
+        <v>-84.651499999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>4237.288377</v>
+        <v>4237.2883769999999</v>
       </c>
       <c r="AK21" s="1">
         <v>1.177025</v>
       </c>
       <c r="AL21" s="1">
-        <v>1225.660000</v>
+        <v>1225.6600000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.760500</v>
+        <v>-87.760499999999993</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>4248.142826</v>
+        <v>4248.1428260000002</v>
       </c>
       <c r="AP21" s="1">
-        <v>1.180040</v>
+        <v>1.18004</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1233.430000</v>
+        <v>1233.43</v>
       </c>
       <c r="AR21" s="1">
-        <v>-99.274200</v>
+        <v>-99.274199999999993</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>4258.931307</v>
+        <v>4258.9313069999998</v>
       </c>
       <c r="AU21" s="1">
         <v>1.183036</v>
       </c>
       <c r="AV21" s="1">
-        <v>1243.150000</v>
+        <v>1243.1500000000001</v>
       </c>
       <c r="AW21" s="1">
-        <v>-118.003000</v>
+        <v>-118.003</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>4269.578465</v>
+        <v>4269.5784649999996</v>
       </c>
       <c r="AZ21" s="1">
         <v>1.185994</v>
       </c>
       <c r="BA21" s="1">
-        <v>1251.350000</v>
+        <v>1251.3499999999999</v>
       </c>
       <c r="BB21" s="1">
-        <v>-135.018000</v>
+        <v>-135.018</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>4280.584687</v>
+        <v>4280.5846869999996</v>
       </c>
       <c r="BE21" s="1">
-        <v>1.189051</v>
+        <v>1.1890510000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1289.970000</v>
+        <v>1289.97</v>
       </c>
       <c r="BG21" s="1">
-        <v>-214.818000</v>
+        <v>-214.81800000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>4291.155395</v>
+        <v>4291.1553949999998</v>
       </c>
       <c r="BJ21" s="1">
         <v>1.191988</v>
       </c>
       <c r="BK21" s="1">
-        <v>1356.520000</v>
+        <v>1356.52</v>
       </c>
       <c r="BL21" s="1">
-        <v>-348.622000</v>
+        <v>-348.62200000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>4301.412163</v>
       </c>
       <c r="BO21" s="1">
-        <v>1.194837</v>
+        <v>1.1948369999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1465.690000</v>
+        <v>1465.69</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-568.712000</v>
+        <v>-568.71199999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>4312.442725</v>
+        <v>4312.4427249999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>1.197901</v>
+        <v>1.1979010000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1592.560000</v>
+        <v>1592.56</v>
       </c>
       <c r="BV21" s="1">
-        <v>-818.791000</v>
+        <v>-818.79100000000005</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>4323.227703</v>
+        <v>4323.2277029999996</v>
       </c>
       <c r="BY21" s="1">
-        <v>1.200897</v>
+        <v>1.2008970000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1739.880000</v>
+        <v>1739.88</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1093.090000</v>
+        <v>-1093.0899999999999</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>4336.140085</v>
@@ -5604,120 +6020,120 @@
         <v>1.204483</v>
       </c>
       <c r="CE21" s="1">
-        <v>2148.900000</v>
+        <v>2148.9</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1762.630000</v>
+        <v>-1762.63</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>4163.485657</v>
+        <v>4163.4856570000002</v>
       </c>
       <c r="B22" s="1">
-        <v>1.156524</v>
+        <v>1.1565240000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1144.620000</v>
+        <v>1144.6199999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-256.761000</v>
+        <v>-256.76100000000002</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>4173.939836</v>
+        <v>4173.9398359999996</v>
       </c>
       <c r="G22" s="1">
-        <v>1.159428</v>
+        <v>1.1594279999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1165.970000</v>
+        <v>1165.97</v>
       </c>
       <c r="I22" s="1">
-        <v>-215.243000</v>
+        <v>-215.24299999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>4184.453040</v>
+        <v>4184.4530400000003</v>
       </c>
       <c r="L22" s="1">
-        <v>1.162348</v>
+        <v>1.1623479999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1192.510000</v>
+        <v>1192.51</v>
       </c>
       <c r="N22" s="1">
-        <v>-149.263000</v>
+        <v>-149.26300000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>4194.940481</v>
+        <v>4194.9404809999996</v>
       </c>
       <c r="Q22" s="1">
-        <v>1.165261</v>
+        <v>1.1652610000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1200.200000</v>
+        <v>1200.2</v>
       </c>
       <c r="S22" s="1">
-        <v>-127.076000</v>
+        <v>-127.07599999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>4205.378258</v>
+        <v>4205.3782579999997</v>
       </c>
       <c r="V22" s="1">
         <v>1.168161</v>
       </c>
       <c r="W22" s="1">
-        <v>1207.180000</v>
+        <v>1207.18</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.322000</v>
+        <v>-106.322</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>4216.611651</v>
+        <v>4216.6116510000002</v>
       </c>
       <c r="AA22" s="1">
         <v>1.171281</v>
       </c>
       <c r="AB22" s="1">
-        <v>1214.310000</v>
+        <v>1214.31</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.125300</v>
+        <v>-89.125299999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>4227.101047</v>
+        <v>4227.1010470000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>1.174195</v>
+        <v>1.1741950000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1218.830000</v>
+        <v>1218.83</v>
       </c>
       <c r="AH22" s="1">
-        <v>-84.689500</v>
+        <v>-84.689499999999995</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>4237.640711</v>
@@ -5726,572 +6142,572 @@
         <v>1.177122</v>
       </c>
       <c r="AL22" s="1">
-        <v>1225.690000</v>
+        <v>1225.69</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.761000</v>
+        <v>-87.760999999999996</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>4248.501931</v>
+        <v>4248.5019309999998</v>
       </c>
       <c r="AP22" s="1">
         <v>1.180139</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1233.450000</v>
+        <v>1233.45</v>
       </c>
       <c r="AR22" s="1">
-        <v>-99.297700</v>
+        <v>-99.297700000000006</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>4259.293882</v>
+        <v>4259.2938819999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>1.183137</v>
+        <v>1.1831370000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1243.140000</v>
+        <v>1243.1400000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-118.009000</v>
+        <v>-118.009</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>4270.248030</v>
+        <v>4270.2480299999997</v>
       </c>
       <c r="AZ22" s="1">
-        <v>1.186180</v>
+        <v>1.18618</v>
       </c>
       <c r="BA22" s="1">
-        <v>1251.330000</v>
+        <v>1251.33</v>
       </c>
       <c r="BB22" s="1">
-        <v>-135.004000</v>
+        <v>-135.00399999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>4281.000798</v>
       </c>
       <c r="BE22" s="1">
-        <v>1.189167</v>
+        <v>1.1891670000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1289.990000</v>
+        <v>1289.99</v>
       </c>
       <c r="BG22" s="1">
-        <v>-214.821000</v>
+        <v>-214.821</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>4291.600801</v>
+        <v>4291.6008009999996</v>
       </c>
       <c r="BJ22" s="1">
-        <v>1.192111</v>
+        <v>1.1921109999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1356.510000</v>
+        <v>1356.51</v>
       </c>
       <c r="BL22" s="1">
-        <v>-348.605000</v>
+        <v>-348.60500000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>4301.819412</v>
+        <v>4301.8194119999998</v>
       </c>
       <c r="BO22" s="1">
-        <v>1.194950</v>
+        <v>1.19495</v>
       </c>
       <c r="BP22" s="1">
-        <v>1465.680000</v>
+        <v>1465.68</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-568.663000</v>
+        <v>-568.66300000000001</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>4312.875206</v>
+        <v>4312.8752059999997</v>
       </c>
       <c r="BT22" s="1">
         <v>1.198021</v>
       </c>
       <c r="BU22" s="1">
-        <v>1592.750000</v>
+        <v>1592.75</v>
       </c>
       <c r="BV22" s="1">
-        <v>-818.828000</v>
+        <v>-818.82799999999997</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>4323.647814</v>
+        <v>4323.6478139999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>1.201013</v>
+        <v>1.2010130000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1740.060000</v>
+        <v>1740.06</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1093.220000</v>
+        <v>-1093.22</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>4336.656922</v>
+        <v>4336.6569220000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>1.204627</v>
+        <v>1.2046269999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>2151.140000</v>
+        <v>2151.14</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1762.710000</v>
+        <v>-1762.71</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>4163.827898</v>
+        <v>4163.8278979999995</v>
       </c>
       <c r="B23" s="1">
-        <v>1.156619</v>
+        <v>1.1566190000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1144.800000</v>
+        <v>1144.8</v>
       </c>
       <c r="D23" s="1">
-        <v>-256.744000</v>
+        <v>-256.74400000000003</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>4174.287531</v>
+        <v>4174.2875309999999</v>
       </c>
       <c r="G23" s="1">
         <v>1.159524</v>
       </c>
       <c r="H23" s="1">
-        <v>1166.130000</v>
+        <v>1166.1300000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-214.900000</v>
+        <v>-214.9</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>4184.800270</v>
+        <v>4184.8002699999997</v>
       </c>
       <c r="L23" s="1">
         <v>1.162445</v>
       </c>
       <c r="M23" s="1">
-        <v>1192.680000</v>
+        <v>1192.68</v>
       </c>
       <c r="N23" s="1">
-        <v>-149.276000</v>
+        <v>-149.27600000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>4195.634847</v>
+        <v>4195.6348470000003</v>
       </c>
       <c r="Q23" s="1">
         <v>1.165454</v>
       </c>
       <c r="R23" s="1">
-        <v>1200.220000</v>
+        <v>1200.22</v>
       </c>
       <c r="S23" s="1">
-        <v>-127.122000</v>
+        <v>-127.122</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>4206.067235</v>
+        <v>4206.0672350000004</v>
       </c>
       <c r="V23" s="1">
-        <v>1.168352</v>
+        <v>1.1683520000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1207.110000</v>
+        <v>1207.1099999999999</v>
       </c>
       <c r="X23" s="1">
-        <v>-106.375000</v>
+        <v>-106.375</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>4216.957859</v>
+        <v>4216.9578590000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>1.171377</v>
+        <v>1.1713769999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1214.380000</v>
+        <v>1214.3800000000001</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.246400</v>
+        <v>-89.246399999999994</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>4227.428933</v>
+        <v>4227.4289330000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>1.174286</v>
+        <v>1.1742859999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>1218.810000</v>
+        <v>1218.81</v>
       </c>
       <c r="AH23" s="1">
-        <v>-84.688200</v>
+        <v>-84.688199999999995</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>4237.987769</v>
+        <v>4237.9877690000003</v>
       </c>
       <c r="AK23" s="1">
         <v>1.177219</v>
       </c>
       <c r="AL23" s="1">
-        <v>1225.670000</v>
+        <v>1225.67</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.753200</v>
+        <v>-87.753200000000007</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>4249.164090</v>
+        <v>4249.1640900000002</v>
       </c>
       <c r="AP23" s="1">
         <v>1.180323</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1233.420000</v>
+        <v>1233.42</v>
       </c>
       <c r="AR23" s="1">
-        <v>-99.250200</v>
+        <v>-99.250200000000007</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>4260.015601</v>
+        <v>4260.0156010000001</v>
       </c>
       <c r="AU23" s="1">
         <v>1.183338</v>
       </c>
       <c r="AV23" s="1">
-        <v>1243.140000</v>
+        <v>1243.1400000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-118.028000</v>
+        <v>-118.02800000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>4270.685036</v>
+        <v>4270.6850359999999</v>
       </c>
       <c r="AZ23" s="1">
         <v>1.186301</v>
       </c>
       <c r="BA23" s="1">
-        <v>1251.310000</v>
+        <v>1251.31</v>
       </c>
       <c r="BB23" s="1">
-        <v>-134.999000</v>
+        <v>-134.999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>4281.390689</v>
+        <v>4281.3906889999998</v>
       </c>
       <c r="BE23" s="1">
-        <v>1.189275</v>
+        <v>1.1892750000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1289.980000</v>
+        <v>1289.98</v>
       </c>
       <c r="BG23" s="1">
-        <v>-214.754000</v>
+        <v>-214.75399999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>4291.977793</v>
       </c>
       <c r="BJ23" s="1">
-        <v>1.192216</v>
+        <v>1.1922159999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1356.540000</v>
+        <v>1356.54</v>
       </c>
       <c r="BL23" s="1">
-        <v>-348.583000</v>
+        <v>-348.58300000000003</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>4302.218163</v>
+        <v>4302.2181629999995</v>
       </c>
       <c r="BO23" s="1">
-        <v>1.195061</v>
+        <v>1.1950609999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1465.660000</v>
+        <v>1465.66</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-568.695000</v>
+        <v>-568.69500000000005</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>4313.300294</v>
+        <v>4313.3002939999997</v>
       </c>
       <c r="BT23" s="1">
-        <v>1.198139</v>
+        <v>1.1981390000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1592.800000</v>
+        <v>1592.8</v>
       </c>
       <c r="BV23" s="1">
-        <v>-818.913000</v>
+        <v>-818.91300000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>4324.070405</v>
+        <v>4324.0704050000004</v>
       </c>
       <c r="BY23" s="1">
-        <v>1.201131</v>
+        <v>1.2011309999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1740.080000</v>
+        <v>1740.08</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1093.210000</v>
+        <v>-1093.21</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>4337.173220</v>
+        <v>4337.1732199999997</v>
       </c>
       <c r="CD23" s="1">
-        <v>1.204770</v>
+        <v>1.2047699999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>2150.700000</v>
+        <v>2150.6999999999998</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1763.370000</v>
+        <v>-1763.37</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>4164.170168</v>
+        <v>4164.1701679999996</v>
       </c>
       <c r="B24" s="1">
         <v>1.156714</v>
       </c>
       <c r="C24" s="1">
-        <v>1144.580000</v>
+        <v>1144.58</v>
       </c>
       <c r="D24" s="1">
-        <v>-256.748000</v>
+        <v>-256.74799999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>4174.629771</v>
+        <v>4174.6297709999999</v>
       </c>
       <c r="G24" s="1">
         <v>1.159619</v>
       </c>
       <c r="H24" s="1">
-        <v>1165.810000</v>
+        <v>1165.81</v>
       </c>
       <c r="I24" s="1">
-        <v>-215.312000</v>
+        <v>-215.31200000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>4185.496622</v>
+        <v>4185.4966219999997</v>
       </c>
       <c r="L24" s="1">
-        <v>1.162638</v>
+        <v>1.1626380000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1192.660000</v>
+        <v>1192.6600000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-149.306000</v>
+        <v>-149.30600000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>4195.984527</v>
+        <v>4195.9845269999996</v>
       </c>
       <c r="Q24" s="1">
         <v>1.165551</v>
       </c>
       <c r="R24" s="1">
-        <v>1200.170000</v>
+        <v>1200.17</v>
       </c>
       <c r="S24" s="1">
-        <v>-127.168000</v>
+        <v>-127.16800000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>4206.408487</v>
+        <v>4206.4084869999997</v>
       </c>
       <c r="V24" s="1">
         <v>1.168447</v>
       </c>
       <c r="W24" s="1">
-        <v>1207.230000</v>
+        <v>1207.23</v>
       </c>
       <c r="X24" s="1">
-        <v>-106.363000</v>
+        <v>-106.363</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>4217.305058</v>
+        <v>4217.3050579999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>1.171474</v>
+        <v>1.1714739999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1214.390000</v>
+        <v>1214.3900000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.288900</v>
+        <v>-89.288899999999998</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>4228.083622</v>
+        <v>4228.0836220000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>1.174468</v>
+        <v>1.1744680000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1218.820000</v>
+        <v>1218.82</v>
       </c>
       <c r="AH24" s="1">
-        <v>-84.675300</v>
+        <v>-84.675299999999993</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>4238.639975</v>
       </c>
       <c r="AK24" s="1">
-        <v>1.177400</v>
+        <v>1.1774</v>
       </c>
       <c r="AL24" s="1">
-        <v>1225.690000</v>
+        <v>1225.69</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.722400</v>
+        <v>-87.722399999999993</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>4249.611512</v>
+        <v>4249.6115120000004</v>
       </c>
       <c r="AP24" s="1">
-        <v>1.180448</v>
+        <v>1.1804479999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1233.410000</v>
+        <v>1233.4100000000001</v>
       </c>
       <c r="AR24" s="1">
-        <v>-99.271000</v>
+        <v>-99.271000000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>4260.413849</v>
+        <v>4260.4138489999996</v>
       </c>
       <c r="AU24" s="1">
-        <v>1.183448</v>
+        <v>1.1834480000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1243.120000</v>
+        <v>1243.1199999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-117.992000</v>
+        <v>-117.992</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>4271.040686</v>
+        <v>4271.0406860000003</v>
       </c>
       <c r="AZ24" s="1">
-        <v>1.186400</v>
+        <v>1.1863999999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1251.330000</v>
+        <v>1251.33</v>
       </c>
       <c r="BB24" s="1">
-        <v>-134.991000</v>
+        <v>-134.99100000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>4281.752238</v>
@@ -6300,120 +6716,120 @@
         <v>1.189376</v>
       </c>
       <c r="BF24" s="1">
-        <v>1289.960000</v>
+        <v>1289.96</v>
       </c>
       <c r="BG24" s="1">
-        <v>-214.815000</v>
+        <v>-214.815</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>4292.356207</v>
+        <v>4292.3562069999998</v>
       </c>
       <c r="BJ24" s="1">
         <v>1.192321</v>
       </c>
       <c r="BK24" s="1">
-        <v>1356.520000</v>
+        <v>1356.52</v>
       </c>
       <c r="BL24" s="1">
-        <v>-348.612000</v>
+        <v>-348.61200000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>4302.638770</v>
+        <v>4302.6387699999996</v>
       </c>
       <c r="BO24" s="1">
-        <v>1.195177</v>
+        <v>1.1951769999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1465.720000</v>
+        <v>1465.72</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-568.725000</v>
+        <v>-568.72500000000002</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>4313.705507</v>
+        <v>4313.7055069999997</v>
       </c>
       <c r="BT24" s="1">
-        <v>1.198252</v>
+        <v>1.1982520000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1592.880000</v>
+        <v>1592.88</v>
       </c>
       <c r="BV24" s="1">
-        <v>-818.859000</v>
+        <v>-818.85900000000004</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>4324.498952</v>
+        <v>4324.4989519999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>1.201250</v>
+        <v>1.2012499999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1739.990000</v>
+        <v>1739.99</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1093.200000</v>
+        <v>-1093.2</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>4337.726296</v>
+        <v>4337.7262959999998</v>
       </c>
       <c r="CD24" s="1">
-        <v>1.204924</v>
+        <v>1.2049240000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>2148.830000</v>
+        <v>2148.83</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1762.460000</v>
+        <v>-1762.46</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>4164.851144</v>
+        <v>4164.8511440000002</v>
       </c>
       <c r="B25" s="1">
         <v>1.156903</v>
       </c>
       <c r="C25" s="1">
-        <v>1144.680000</v>
+        <v>1144.68</v>
       </c>
       <c r="D25" s="1">
-        <v>-256.951000</v>
+        <v>-256.95100000000002</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>4175.319706</v>
+        <v>4175.3197060000002</v>
       </c>
       <c r="G25" s="1">
-        <v>1.159811</v>
+        <v>1.1598109999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1165.840000</v>
+        <v>1165.8399999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-215.348000</v>
+        <v>-215.34800000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>4185.837372</v>
@@ -6422,43 +6838,43 @@
         <v>1.162733</v>
       </c>
       <c r="M25" s="1">
-        <v>1192.700000</v>
+        <v>1192.7</v>
       </c>
       <c r="N25" s="1">
-        <v>-149.071000</v>
+        <v>-149.071</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>4196.333742</v>
+        <v>4196.3337419999998</v>
       </c>
       <c r="Q25" s="1">
         <v>1.165648</v>
       </c>
       <c r="R25" s="1">
-        <v>1200.120000</v>
+        <v>1200.1199999999999</v>
       </c>
       <c r="S25" s="1">
-        <v>-127.195000</v>
+        <v>-127.19499999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>4206.752704</v>
+        <v>4206.7527040000004</v>
       </c>
       <c r="V25" s="1">
         <v>1.168542</v>
       </c>
       <c r="W25" s="1">
-        <v>1207.150000</v>
+        <v>1207.1500000000001</v>
       </c>
       <c r="X25" s="1">
-        <v>-106.238000</v>
+        <v>-106.238</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>4217.963283</v>
@@ -6467,240 +6883,240 @@
         <v>1.171656</v>
       </c>
       <c r="AB25" s="1">
-        <v>1214.380000</v>
+        <v>1214.3800000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.250900</v>
+        <v>-89.250900000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>4228.460117</v>
+        <v>4228.4601169999996</v>
       </c>
       <c r="AF25" s="1">
-        <v>1.174572</v>
+        <v>1.1745719999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1218.820000</v>
+        <v>1218.82</v>
       </c>
       <c r="AH25" s="1">
-        <v>-84.635300</v>
+        <v>-84.635300000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>4239.031350</v>
+        <v>4239.0313500000002</v>
       </c>
       <c r="AK25" s="1">
-        <v>1.177509</v>
+        <v>1.1775089999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1225.690000</v>
+        <v>1225.69</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.765700</v>
+        <v>-87.765699999999995</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>4249.972071</v>
+        <v>4249.9720710000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>1.180548</v>
+        <v>1.1805479999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1233.400000</v>
+        <v>1233.4000000000001</v>
       </c>
       <c r="AR25" s="1">
-        <v>-99.268200</v>
+        <v>-99.268199999999993</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>4260.778905</v>
+        <v>4260.7789050000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>1.183550</v>
+        <v>1.1835500000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1243.140000</v>
+        <v>1243.1400000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-117.996000</v>
+        <v>-117.996</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>4271.403243</v>
+        <v>4271.4032429999997</v>
       </c>
       <c r="AZ25" s="1">
         <v>1.186501</v>
       </c>
       <c r="BA25" s="1">
-        <v>1251.340000</v>
+        <v>1251.3399999999999</v>
       </c>
       <c r="BB25" s="1">
-        <v>-135.013000</v>
+        <v>-135.01300000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>4282.172876</v>
+        <v>4282.1728759999996</v>
       </c>
       <c r="BE25" s="1">
         <v>1.189492</v>
       </c>
       <c r="BF25" s="1">
-        <v>1290.000000</v>
+        <v>1290</v>
       </c>
       <c r="BG25" s="1">
-        <v>-214.812000</v>
+        <v>-214.81200000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>4292.774831</v>
+        <v>4292.7748309999997</v>
       </c>
       <c r="BJ25" s="1">
         <v>1.192437</v>
       </c>
       <c r="BK25" s="1">
-        <v>1356.510000</v>
+        <v>1356.51</v>
       </c>
       <c r="BL25" s="1">
-        <v>-348.589000</v>
+        <v>-348.589</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>4303.037057</v>
+        <v>4303.0370569999995</v>
       </c>
       <c r="BO25" s="1">
-        <v>1.195288</v>
+        <v>1.1952879999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1465.730000</v>
+        <v>1465.73</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-568.730000</v>
+        <v>-568.73</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>4314.118212</v>
+        <v>4314.1182120000003</v>
       </c>
       <c r="BT25" s="1">
         <v>1.198366</v>
       </c>
       <c r="BU25" s="1">
-        <v>1592.990000</v>
+        <v>1592.99</v>
       </c>
       <c r="BV25" s="1">
-        <v>-819.175000</v>
+        <v>-819.17499999999995</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>4324.913626</v>
+        <v>4324.9136259999996</v>
       </c>
       <c r="BY25" s="1">
         <v>1.201365</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1740.040000</v>
+        <v>1740.04</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1093.230000</v>
+        <v>-1093.23</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>4338.258963</v>
+        <v>4338.2589630000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>1.205072</v>
+        <v>1.2050719999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>2150.880000</v>
+        <v>2150.88</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1762.800000</v>
+        <v>-1762.8</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>4165.196359</v>
+        <v>4165.1963589999996</v>
       </c>
       <c r="B26" s="1">
-        <v>1.156999</v>
+        <v>1.1569990000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1144.890000</v>
+        <v>1144.8900000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-257.031000</v>
+        <v>-257.03100000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>4175.664954</v>
+        <v>4175.6649539999999</v>
       </c>
       <c r="G26" s="1">
         <v>1.159907</v>
       </c>
       <c r="H26" s="1">
-        <v>1165.970000</v>
+        <v>1165.97</v>
       </c>
       <c r="I26" s="1">
-        <v>-215.368000</v>
+        <v>-215.36799999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>4186.186091</v>
+        <v>4186.1860909999996</v>
       </c>
       <c r="L26" s="1">
-        <v>1.162829</v>
+        <v>1.1628289999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1192.480000</v>
+        <v>1192.48</v>
       </c>
       <c r="N26" s="1">
-        <v>-148.991000</v>
+        <v>-148.99100000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>4196.992397</v>
       </c>
       <c r="Q26" s="1">
-        <v>1.165831</v>
+        <v>1.1658310000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1200.140000</v>
+        <v>1200.1400000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.100000</v>
+        <v>-127.1</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>4207.404415</v>
@@ -6709,103 +7125,103 @@
         <v>1.168723</v>
       </c>
       <c r="W26" s="1">
-        <v>1207.140000</v>
+        <v>1207.1400000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.350000</v>
+        <v>-106.35</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>4218.362035</v>
+        <v>4218.3620350000001</v>
       </c>
       <c r="AA26" s="1">
         <v>1.171767</v>
       </c>
       <c r="AB26" s="1">
-        <v>1214.440000</v>
+        <v>1214.44</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.153000</v>
+        <v>-89.153000000000006</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>4228.805795</v>
+        <v>4228.8057950000002</v>
       </c>
       <c r="AF26" s="1">
         <v>1.174668</v>
       </c>
       <c r="AG26" s="1">
-        <v>1218.810000</v>
+        <v>1218.81</v>
       </c>
       <c r="AH26" s="1">
-        <v>-84.624800</v>
+        <v>-84.624799999999993</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>4239.380533</v>
+        <v>4239.3805329999996</v>
       </c>
       <c r="AK26" s="1">
-        <v>1.177606</v>
+        <v>1.1776059999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1225.690000</v>
+        <v>1225.69</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.764100</v>
+        <v>-87.764099999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>4250.333686</v>
+        <v>4250.3336859999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>1.180648</v>
+        <v>1.1806479999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1233.410000</v>
+        <v>1233.4100000000001</v>
       </c>
       <c r="AR26" s="1">
-        <v>-99.245700</v>
+        <v>-99.245699999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>4261.195545</v>
+        <v>4261.1955449999996</v>
       </c>
       <c r="AU26" s="1">
         <v>1.183665</v>
       </c>
       <c r="AV26" s="1">
-        <v>1243.140000</v>
+        <v>1243.1400000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-118.033000</v>
+        <v>-118.033</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>4271.829276</v>
+        <v>4271.8292760000004</v>
       </c>
       <c r="AZ26" s="1">
-        <v>1.186619</v>
+        <v>1.1866190000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1251.310000</v>
+        <v>1251.31</v>
       </c>
       <c r="BB26" s="1">
-        <v>-134.988000</v>
+        <v>-134.988</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>4282.472957</v>
@@ -6814,90 +7230,91 @@
         <v>1.189576</v>
       </c>
       <c r="BF26" s="1">
-        <v>1289.990000</v>
+        <v>1289.99</v>
       </c>
       <c r="BG26" s="1">
-        <v>-214.771000</v>
+        <v>-214.77099999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>4293.127486</v>
+        <v>4293.1274860000003</v>
       </c>
       <c r="BJ26" s="1">
-        <v>1.192535</v>
+        <v>1.1925349999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1356.520000</v>
+        <v>1356.52</v>
       </c>
       <c r="BL26" s="1">
-        <v>-348.607000</v>
+        <v>-348.60700000000003</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>4303.457169</v>
+        <v>4303.4571690000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>1.195405</v>
+        <v>1.1954050000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1465.730000</v>
+        <v>1465.73</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-568.691000</v>
+        <v>-568.69100000000003</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>4314.534024</v>
+        <v>4314.5340239999996</v>
       </c>
       <c r="BT26" s="1">
         <v>1.198482</v>
       </c>
       <c r="BU26" s="1">
-        <v>1592.970000</v>
+        <v>1592.97</v>
       </c>
       <c r="BV26" s="1">
-        <v>-819.245000</v>
+        <v>-819.245</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>4325.370915</v>
+        <v>4325.3709150000004</v>
       </c>
       <c r="BY26" s="1">
         <v>1.201492</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1740.010000</v>
+        <v>1740.01</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1093.360000</v>
+        <v>-1093.3599999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>4338.774803</v>
+        <v>4338.7748030000002</v>
       </c>
       <c r="CD26" s="1">
-        <v>1.205215</v>
+        <v>1.2052149999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>2150.850000</v>
+        <v>2150.85</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1760.570000</v>
+        <v>-1760.57</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>